--- a/周数据/《实施上线数据统计表》-黄纯伟.xlsx
+++ b/周数据/《实施上线数据统计表》-黄纯伟.xlsx
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="288">
   <si>
     <t>月份</t>
   </si>
@@ -755,14 +755,6 @@
     <t>SAAS</t>
   </si>
   <si>
-    <t>沽涷常熟世茂中心店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>南京诱色餐饮管理有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -823,15 +815,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>跟商户约时间远程实施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>无需回访</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷成都茂业店</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1054,10 +1038,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有45家未开户，16家未上线，39家已上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>店铺签约100家，目前还有91家未开户，9家未上线</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1083,6 +1063,85 @@
   </si>
   <si>
     <t>苗酸鱼粉无锡万达店实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗小坛南京中央店实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月24日已调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷常熟世茂中心店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都茂业店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙党平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏君</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通观音山大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有45家未开户，15家未上线，40家已上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷上海临空店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷金坛吾悦店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷常熟方塔街店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（宿迁金鹰店）</t>
+  </si>
+  <si>
+    <t>跟商户约时间远程实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰皇菠萝饭</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2033,9 +2092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2303,6 +2359,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2595,1080 +2654,1086 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="A1" s="94" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="98" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
+      <c r="A2" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="111" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="117" t="s">
+      <c r="H3" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="I3" s="116" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="118"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="111"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57">
+      <c r="A5" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56">
         <v>4</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>2</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <v>1</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="59">
         <f t="shared" ref="F5:F15" si="0">D5+E5</f>
         <v>3</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="60">
         <f t="shared" ref="G5:G15" si="1">C5-F5</f>
         <v>1</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="61">
         <f t="shared" ref="H5:H15" si="2">E5/F5</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <f t="shared" ref="I5:I15" si="3">F5/C5</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65">
+      <c r="A6" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64">
         <v>10</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="65">
         <v>2</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="66">
         <v>7</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="69">
         <f t="shared" si="2"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="70">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="88" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65">
+      <c r="A7" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64">
         <v>6</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="65">
         <v>1</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="66">
         <v>5</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="67">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="70">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65">
+      <c r="A8" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64">
         <v>0</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="65">
         <v>1</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="66">
         <v>1</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="68">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="69">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I8" s="71" t="e">
+      <c r="I8" s="70" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A9" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73">
+      <c r="A9" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72">
         <v>8</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="73">
         <v>4</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="74">
         <v>1</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="76">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="77">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="78">
         <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="81">
+      <c r="A10" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="80">
         <v>0</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="57">
         <v>0</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="58">
         <v>0</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="62" t="e">
+      <c r="H10" s="61" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="63" t="e">
+      <c r="I10" s="62" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="93"/>
-      <c r="B11" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="83">
+      <c r="A11" s="92"/>
+      <c r="B11" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="82">
         <v>3</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="65">
         <v>2</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="66">
         <v>0</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="67">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="70">
         <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="93"/>
-      <c r="B12" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="83">
+      <c r="A12" s="92"/>
+      <c r="B12" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="82">
         <v>4</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="65">
         <v>1</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="66">
         <v>2</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="67">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="69">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="70">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="93"/>
-      <c r="B13" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68">
+      <c r="A13" s="92"/>
+      <c r="B13" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="82">
+        <v>2</v>
+      </c>
+      <c r="D13" s="65">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>2</v>
+      </c>
+      <c r="F13" s="67">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="92"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G14" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="70" t="e">
+      <c r="H14" s="69" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="71" t="e">
+      <c r="I14" s="70" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="93"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68">
+    <row r="15" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G15" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="70" t="e">
+      <c r="H15" s="77" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="71" t="e">
+      <c r="I15" s="78" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="78" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="79" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="90"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60">
+      <c r="A16" s="89"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59">
         <f t="shared" ref="F16:F45" si="4">D16+E16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="60">
         <f t="shared" ref="G16:G45" si="5">C16-F16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="62" t="e">
+      <c r="H16" s="61" t="e">
         <f t="shared" ref="H16:H45" si="6">E16/F16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="63" t="e">
+      <c r="I16" s="62" t="e">
         <f t="shared" ref="I16:I45" si="7">F16/C16</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="90"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68">
+      <c r="A17" s="89"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H17" s="70" t="e">
+      <c r="H17" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="71" t="e">
+      <c r="I17" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="90"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68">
+      <c r="A18" s="89"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H18" s="70" t="e">
+      <c r="H18" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="71" t="e">
+      <c r="I18" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="90"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68">
+      <c r="A19" s="89"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H19" s="70" t="e">
+      <c r="H19" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="71" t="e">
+      <c r="I19" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="90"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68">
+      <c r="A20" s="89"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20" s="70" t="e">
+      <c r="H20" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="71" t="e">
+      <c r="I20" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76">
+      <c r="A21" s="90"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21" s="78" t="e">
+      <c r="H21" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="79" t="e">
+      <c r="I21" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="90"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60">
+      <c r="A22" s="89"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H22" s="62" t="e">
+      <c r="H22" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="63" t="e">
+      <c r="I22" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="90"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68">
+      <c r="A23" s="89"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H23" s="70" t="e">
+      <c r="H23" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="71" t="e">
+      <c r="I23" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="90"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68">
+      <c r="A24" s="89"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G24" s="69">
+      <c r="G24" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H24" s="70" t="e">
+      <c r="H24" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="71" t="e">
+      <c r="I24" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="90"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68">
+      <c r="A25" s="89"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H25" s="70" t="e">
+      <c r="H25" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="71" t="e">
+      <c r="I25" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="90"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68">
+      <c r="A26" s="89"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H26" s="70" t="e">
+      <c r="H26" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="71" t="e">
+      <c r="I26" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76">
+      <c r="A27" s="90"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H27" s="78" t="e">
+      <c r="H27" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="79" t="e">
+      <c r="I27" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="90"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60">
+      <c r="A28" s="89"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="62" t="e">
+      <c r="H28" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="63" t="e">
+      <c r="I28" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="90"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68">
+      <c r="A29" s="89"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G29" s="69">
+      <c r="G29" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H29" s="70" t="e">
+      <c r="H29" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="71" t="e">
+      <c r="I29" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="90"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68">
+      <c r="A30" s="89"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G30" s="69">
+      <c r="G30" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H30" s="70" t="e">
+      <c r="H30" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="71" t="e">
+      <c r="I30" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="90"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68">
+      <c r="A31" s="89"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G31" s="69">
+      <c r="G31" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H31" s="70" t="e">
+      <c r="H31" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="71" t="e">
+      <c r="I31" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="90"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68">
+      <c r="A32" s="89"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G32" s="69">
+      <c r="G32" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H32" s="70" t="e">
+      <c r="H32" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="71" t="e">
+      <c r="I32" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76">
+      <c r="A33" s="90"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H33" s="78" t="e">
+      <c r="H33" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="79" t="e">
+      <c r="I33" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="90"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="60">
+      <c r="A34" s="89"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H34" s="62" t="e">
+      <c r="H34" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="63" t="e">
+      <c r="I34" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="90"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68">
+      <c r="A35" s="89"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G35" s="69">
+      <c r="G35" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H35" s="70" t="e">
+      <c r="H35" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="71" t="e">
+      <c r="I35" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="90"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68">
+      <c r="A36" s="89"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G36" s="69">
+      <c r="G36" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H36" s="70" t="e">
+      <c r="H36" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="71" t="e">
+      <c r="I36" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="90"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68">
+      <c r="A37" s="89"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G37" s="69">
+      <c r="G37" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H37" s="70" t="e">
+      <c r="H37" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="71" t="e">
+      <c r="I37" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="90"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68">
+      <c r="A38" s="89"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H38" s="70" t="e">
+      <c r="H38" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="71" t="e">
+      <c r="I38" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A39" s="91"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76">
+      <c r="A39" s="90"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G39" s="77">
+      <c r="G39" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H39" s="78" t="e">
+      <c r="H39" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="79" t="e">
+      <c r="I39" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="90"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60">
+      <c r="A40" s="89"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H40" s="62" t="e">
+      <c r="H40" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="63" t="e">
+      <c r="I40" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="90"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68">
+      <c r="A41" s="89"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G41" s="69">
+      <c r="G41" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H41" s="70" t="e">
+      <c r="H41" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="71" t="e">
+      <c r="I41" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="90"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68">
+      <c r="A42" s="89"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G42" s="69">
+      <c r="G42" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H42" s="70" t="e">
+      <c r="H42" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="71" t="e">
+      <c r="I42" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="90"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="68">
+      <c r="A43" s="89"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G43" s="69">
+      <c r="G43" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H43" s="70" t="e">
+      <c r="H43" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="71" t="e">
+      <c r="I43" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="90"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68">
+      <c r="A44" s="89"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G44" s="69">
+      <c r="G44" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H44" s="70" t="e">
+      <c r="H44" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="71" t="e">
+      <c r="I44" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A45" s="91"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76">
+      <c r="A45" s="90"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="77">
+      <c r="G45" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H45" s="78" t="e">
+      <c r="H45" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="79" t="e">
+      <c r="I45" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -3769,7 +3834,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="119">
+      <c r="A2" s="118">
         <v>51</v>
       </c>
       <c r="B2" s="27">
@@ -3816,7 +3881,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="121"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="27">
         <v>43085</v>
       </c>
@@ -3908,7 +3973,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="119">
+      <c r="A5" s="118">
         <v>1</v>
       </c>
       <c r="B5" s="28">
@@ -3955,7 +4020,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="121"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="28">
         <v>43103</v>
       </c>
@@ -4000,7 +4065,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="119">
+      <c r="A7" s="118">
         <v>2</v>
       </c>
       <c r="B7" s="28">
@@ -4047,7 +4112,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="121"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="28">
         <v>43109</v>
       </c>
@@ -4092,7 +4157,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="119">
+      <c r="A9" s="118">
         <v>3</v>
       </c>
       <c r="B9" s="28">
@@ -4139,7 +4204,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="121"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="28">
         <v>43116</v>
       </c>
@@ -4231,7 +4296,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="119">
+      <c r="A12" s="118">
         <v>5</v>
       </c>
       <c r="B12" s="28">
@@ -4278,7 +4343,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="120"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="28">
         <v>43130</v>
       </c>
@@ -4323,7 +4388,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="121"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="28">
         <v>43131</v>
       </c>
@@ -4368,7 +4433,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="119">
+      <c r="A15" s="118">
         <v>6</v>
       </c>
       <c r="B15" s="28">
@@ -4415,7 +4480,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="121"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="28">
         <v>43138</v>
       </c>
@@ -4480,7 +4545,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="119">
+      <c r="A18" s="118">
         <v>8</v>
       </c>
       <c r="B18" s="28">
@@ -4527,7 +4592,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="120"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="28">
         <v>43154</v>
       </c>
@@ -4572,7 +4637,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="120"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="28">
         <v>43154</v>
       </c>
@@ -4617,7 +4682,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="120"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="28">
         <v>43154</v>
       </c>
@@ -4662,7 +4727,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="120"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="28">
         <v>43154</v>
       </c>
@@ -4707,7 +4772,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="121"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="28">
         <v>43154</v>
       </c>
@@ -4752,7 +4817,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="119">
+      <c r="A24" s="118">
         <v>9</v>
       </c>
       <c r="B24" s="28">
@@ -4799,7 +4864,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="120"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="28">
         <v>43159</v>
       </c>
@@ -4844,7 +4909,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="120"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="28">
         <v>43159</v>
       </c>
@@ -4889,7 +4954,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="120"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="28">
         <v>43159</v>
       </c>
@@ -4934,7 +4999,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="121"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="28">
         <v>43159</v>
       </c>
@@ -5001,7 +5066,7 @@
         <v>76121106</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>32</v>
@@ -5073,7 +5138,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="119">
+      <c r="A31" s="118">
         <v>12</v>
       </c>
       <c r="B31" s="28">
@@ -5120,7 +5185,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="120"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="28">
         <v>43180</v>
       </c>
@@ -5165,7 +5230,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="120"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="28">
         <v>43180</v>
       </c>
@@ -5210,7 +5275,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="120"/>
+      <c r="A34" s="119"/>
       <c r="B34" s="28">
         <v>43180</v>
       </c>
@@ -5255,7 +5320,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="120"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="28">
         <v>43180</v>
       </c>
@@ -5300,7 +5365,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="120"/>
+      <c r="A36" s="119"/>
       <c r="B36" s="28">
         <v>43180</v>
       </c>
@@ -5345,7 +5410,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="121"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="28">
         <v>43180</v>
       </c>
@@ -5390,7 +5455,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="119">
+      <c r="A38" s="118">
         <v>13</v>
       </c>
       <c r="B38" s="28">
@@ -5437,7 +5502,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="120"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="28">
         <v>43187</v>
       </c>
@@ -5482,7 +5547,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="120"/>
+      <c r="A40" s="119"/>
       <c r="B40" s="28">
         <v>43187</v>
       </c>
@@ -5527,7 +5592,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="120"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="28">
         <v>43187</v>
       </c>
@@ -5572,7 +5637,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="120"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="28">
         <v>43187</v>
       </c>
@@ -5617,7 +5682,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="28">
         <v>43187</v>
       </c>
@@ -5662,7 +5727,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="120"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="28">
         <v>43187</v>
       </c>
@@ -5707,7 +5772,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="120"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="28">
         <v>43187</v>
       </c>
@@ -5752,7 +5817,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="120"/>
+      <c r="A46" s="119"/>
       <c r="B46" s="28">
         <v>43187</v>
       </c>
@@ -5797,7 +5862,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="120"/>
+      <c r="A47" s="119"/>
       <c r="B47" s="28">
         <v>43187</v>
       </c>
@@ -5842,7 +5907,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="120"/>
+      <c r="A48" s="119"/>
       <c r="B48" s="28">
         <v>43187</v>
       </c>
@@ -5887,7 +5952,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="121"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="28">
         <v>43187</v>
       </c>
@@ -5932,7 +5997,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="122">
+      <c r="A50" s="121">
         <v>14</v>
       </c>
       <c r="B50" s="28">
@@ -5979,7 +6044,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="123"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="28">
         <v>43194</v>
       </c>
@@ -6024,7 +6089,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="123"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="28">
         <v>43194</v>
       </c>
@@ -6069,7 +6134,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="124"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="28">
         <v>43194</v>
       </c>
@@ -6114,7 +6179,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="119">
+      <c r="A54" s="118">
         <v>15</v>
       </c>
       <c r="B54" s="28">
@@ -6161,7 +6226,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="120"/>
+      <c r="A55" s="119"/>
       <c r="B55" s="28">
         <v>43201</v>
       </c>
@@ -6206,7 +6271,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="120"/>
+      <c r="A56" s="119"/>
       <c r="B56" s="28">
         <v>43201</v>
       </c>
@@ -6251,7 +6316,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="121"/>
+      <c r="A57" s="120"/>
       <c r="B57" s="28">
         <v>43201</v>
       </c>
@@ -6306,19 +6371,19 @@
         <v>29</v>
       </c>
       <c r="D58" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F58" s="21" t="s">
         <v>192</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>194</v>
       </c>
       <c r="G58" s="1">
         <v>76159127</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I58" s="21" t="s">
         <v>32</v>
@@ -6330,10 +6395,10 @@
         <v>17602558329</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N58" s="1">
         <v>18750225127</v>
@@ -6343,7 +6408,7 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="119">
+      <c r="A59" s="118">
         <v>17</v>
       </c>
       <c r="B59" s="28">
@@ -6353,10 +6418,10 @@
         <v>29</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>55</v>
@@ -6365,7 +6430,7 @@
         <v>76155318</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I59" s="21" t="s">
         <v>32</v>
@@ -6377,10 +6442,10 @@
         <v>17602558329</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N59" s="30">
         <v>17327996435</v>
@@ -6390,7 +6455,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="120"/>
+      <c r="A60" s="119"/>
       <c r="B60" s="28">
         <v>43215</v>
       </c>
@@ -6404,13 +6469,13 @@
         <v>165</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G60" s="1">
         <v>76156911</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>32</v>
@@ -6434,11 +6499,11 @@
         <v>39</v>
       </c>
       <c r="P60" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="121"/>
+      <c r="A61" s="120"/>
       <c r="B61" s="28">
         <v>43215</v>
       </c>
@@ -6452,13 +6517,13 @@
         <v>165</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G61" s="1">
         <v>76157133</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>32</v>
@@ -6482,7 +6547,7 @@
         <v>39</v>
       </c>
       <c r="P61" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6496,19 +6561,19 @@
         <v>29</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G62" s="1">
         <v>76163685</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I62" s="21" t="s">
         <v>32</v>
@@ -6520,10 +6585,10 @@
         <v>17602558329</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M62" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="N62" s="1">
         <v>15380862222</v>
@@ -6533,7 +6598,7 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="119">
+      <c r="A63" s="118">
         <v>19</v>
       </c>
       <c r="B63" s="28">
@@ -6555,7 +6620,7 @@
         <v>76161175</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I63" s="21" t="s">
         <v>32</v>
@@ -6567,10 +6632,10 @@
         <v>17602558329</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M63" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N63" s="1">
         <v>13813957852</v>
@@ -6580,7 +6645,7 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="121"/>
+      <c r="A64" s="120"/>
       <c r="B64" s="28">
         <v>43229</v>
       </c>
@@ -6594,13 +6659,13 @@
         <v>31</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G64" s="1">
         <v>76161228</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I64" s="21" t="s">
         <v>32</v>
@@ -6612,10 +6677,10 @@
         <v>17602558329</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M64" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N64" s="1">
         <v>18661144557</v>
@@ -6625,7 +6690,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="119">
+      <c r="A65" s="118">
         <v>20</v>
       </c>
       <c r="B65" s="28">
@@ -6635,19 +6700,19 @@
         <v>29</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G65" s="1">
         <v>76167901</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I65" s="21" t="s">
         <v>32</v>
@@ -6659,7 +6724,7 @@
         <v>17602558329</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M65" s="21" t="s">
         <v>38</v>
@@ -6672,7 +6737,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="120"/>
+      <c r="A66" s="119"/>
       <c r="B66" s="28">
         <v>43235</v>
       </c>
@@ -6680,19 +6745,19 @@
         <v>29</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G66" s="1">
         <v>76157973</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I66" s="21" t="s">
         <v>32</v>
@@ -6707,7 +6772,7 @@
         <v>140</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N66" s="11">
         <v>13222071793</v>
@@ -6717,7 +6782,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="120"/>
+      <c r="A67" s="119"/>
       <c r="B67" s="28">
         <v>43235</v>
       </c>
@@ -6725,19 +6790,19 @@
         <v>29</v>
       </c>
       <c r="D67" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>224</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="G67" s="1">
         <v>76161735</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I67" s="21" t="s">
         <v>32</v>
@@ -6752,7 +6817,7 @@
         <v>140</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N67" s="11">
         <v>13222071793</v>
@@ -6762,7 +6827,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="120"/>
+      <c r="A68" s="119"/>
       <c r="B68" s="28">
         <v>43235</v>
       </c>
@@ -6776,13 +6841,13 @@
         <v>179</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G68" s="1">
         <v>76133002</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I68" s="21" t="s">
         <v>32</v>
@@ -6806,11 +6871,11 @@
         <v>39</v>
       </c>
       <c r="P68" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="121"/>
+      <c r="A69" s="120"/>
       <c r="B69" s="28">
         <v>43235</v>
       </c>
@@ -6824,13 +6889,13 @@
         <v>179</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G69" s="1">
         <v>76152937</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I69" s="21" t="s">
         <v>32</v>
@@ -6854,59 +6919,145 @@
         <v>39</v>
       </c>
       <c r="P69" s="47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
+      <c r="A70" s="118">
+        <v>21</v>
+      </c>
+      <c r="B70" s="28">
+        <v>43243</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="G70" s="1">
+        <v>76157998</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="M70" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="N70" s="30">
+        <v>13771053111</v>
+      </c>
+      <c r="O70" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
+      <c r="A71" s="119"/>
+      <c r="B71" s="28">
+        <v>43243</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="G71" s="1">
+        <v>76161201</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="I71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="M71" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="N71" s="30">
+        <v>18841447393</v>
+      </c>
+      <c r="O71" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
+      <c r="A72" s="120"/>
+      <c r="B72" s="28">
+        <v>43243</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" s="1">
+        <v>76152939</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="I72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M72" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N72" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1"/>
@@ -10836,12 +10987,8 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A50:A53"/>
+  <mergeCells count="16">
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
@@ -10852,6 +10999,11 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A50:A53"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
@@ -10869,7 +11021,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -10920,7 +11072,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>43</v>
@@ -10943,7 +11095,7 @@
         <v>43186</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>43</v>
@@ -10957,13 +11109,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="49">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="C4" s="37">
-        <v>43199</v>
+        <v>43227</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>187</v>
@@ -10975,44 +11127,44 @@
         <v>189</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="50">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>209</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="A5" s="49">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="C5" s="37">
-        <v>43213</v>
+        <v>43229</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="50">
-        <v>19</v>
+      <c r="A6" s="118">
+        <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="C6" s="37">
-        <v>43227</v>
+        <v>43234</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>188</v>
@@ -11021,44 +11173,40 @@
         <v>189</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27">
-      <c r="A7" s="50">
-        <v>19</v>
-      </c>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="119"/>
       <c r="B7" s="25" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="C7" s="37">
-        <v>43229</v>
+        <v>43234</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>101</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="50">
-        <v>20</v>
-      </c>
+      <c r="A8" s="119"/>
       <c r="B8" s="25" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C8" s="37">
-        <v>43236</v>
+        <v>43234</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>188</v>
@@ -11067,38 +11215,62 @@
         <v>189</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25">
-      <c r="A10" s="119"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25">
-      <c r="A11" s="120"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="37">
+        <v>43234</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="120"/>
+      <c r="B10" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="37">
+        <v>43236</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="125"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="120"/>
+      <c r="A12" s="125"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
@@ -11107,7 +11279,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="120"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -11116,7 +11288,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="120"/>
+      <c r="A14" s="125"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -11125,7 +11297,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="120"/>
+      <c r="A15" s="125"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -11134,25 +11306,25 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="120"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="120"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="120"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -11161,7 +11333,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="120"/>
+      <c r="A19" s="125"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -11170,7 +11342,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="120"/>
+      <c r="A20" s="125"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -11179,7 +11351,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="120"/>
+      <c r="A21" s="125"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -11188,70 +11360,70 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="120"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="120"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
+    <row r="23" spans="1:7" ht="14.25">
+      <c r="A23" s="118"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="121"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25">
+      <c r="A24" s="119"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="119"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="120"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="9"/>
       <c r="C26" s="14"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="120"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="119"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="120"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="119"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="120"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -11260,7 +11432,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="120"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -11269,7 +11441,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="120"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -11278,7 +11450,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="120"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -11287,7 +11459,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="120"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -11304,62 +11476,62 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="120"/>
+    <row r="35" spans="1:7" ht="14.25">
+      <c r="A35" s="118"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="121"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25">
+      <c r="A36" s="119"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="119"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="12"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="9"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="120"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="9"/>
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="120"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="119"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="120"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="119"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="15"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="120"/>
+      <c r="A41" s="119"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -11368,7 +11540,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="120"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -11377,7 +11549,7 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -11386,7 +11558,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="120"/>
+      <c r="A44" s="119"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -11395,7 +11567,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="120"/>
+      <c r="A45" s="119"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -11412,44 +11584,44 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="120"/>
+    <row r="47" spans="1:7" ht="14.25">
+      <c r="A47" s="119"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="121"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25">
+      <c r="A48" s="119"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.25">
-      <c r="A49" s="120"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="119"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="12"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="14.25">
-      <c r="A50" s="120"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="119"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="15"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="120"/>
+      <c r="A51" s="119"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -11458,7 +11630,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="120"/>
+      <c r="A52" s="119"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -11467,7 +11639,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="120"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -11476,7 +11648,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="120"/>
+      <c r="A54" s="119"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
@@ -11485,7 +11657,7 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="120"/>
+      <c r="A55" s="119"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -11502,30 +11674,12 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="120"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="121"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A37:A48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="A10:A24"/>
-    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
@@ -11544,7 +11698,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -11570,15 +11724,15 @@
       <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>255</v>
+      <c r="D1" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="125">
+      <c r="A2" s="124">
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -11588,33 +11742,33 @@
         <v>43079</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="52"/>
+        <v>259</v>
+      </c>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="121"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="25" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C3" s="35">
         <v>43099</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>238</v>
+        <v>260</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="119">
+      <c r="A4" s="118">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -11624,14 +11778,17 @@
         <v>43127</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="121"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
@@ -11639,29 +11796,29 @@
         <v>43128</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="51">
+      <c r="A6" s="50">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="35">
         <v>43144</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4">
@@ -11674,14 +11831,14 @@
         <v>43190</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="119">
+      <c r="A8" s="118">
         <v>4</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -11691,14 +11848,14 @@
         <v>43191</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="120"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="45" t="s">
         <v>35</v>
       </c>
@@ -11706,27 +11863,44 @@
         <v>43197</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="121"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="120"/>
+      <c r="B10" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="35">
         <v>43219</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="52"/>
+        <v>259</v>
+      </c>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="35">
+        <v>43240</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/周数据/《实施上线数据统计表》-黄纯伟.xlsx
+++ b/周数据/《实施上线数据统计表》-黄纯伟.xlsx
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="297">
   <si>
     <t>月份</t>
   </si>
@@ -1038,10 +1038,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有91家未开户，9家未上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>店铺签约50家，目前还有47家未开户，3家未上线</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1050,10 +1046,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>跟商户约时间实施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>堵雪军</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1114,10 +1106,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有45家未开户，15家未上线，40家已上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>沽涷上海临空店</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1133,15 +1121,62 @@
     <t>怒烤烤串（宿迁金鹰店）</t>
   </si>
   <si>
-    <t>跟商户约时间远程实施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>沈芳芳</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>泰皇菠萝饭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+  </si>
+  <si>
+    <t>5月28日已调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通通州大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉吴江万宝大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有44家未开户，14家未上线，42家已上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有90家未开户，10家未上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（常州湖塘店）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷江阴青阳店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈芳芳</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1946,7 +1981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2235,6 +2270,93 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2255,90 +2377,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2360,8 +2398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2638,7 +2676,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2654,72 +2692,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="112" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="53" t="s">
         <v>236</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="117"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="86" t="s">
@@ -2877,7 +2915,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="116" t="s">
         <v>242</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -2910,7 +2948,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="92"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="79" t="s">
         <v>249</v>
       </c>
@@ -2941,7 +2979,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="92"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="79" t="s">
         <v>238</v>
       </c>
@@ -2972,7 +3010,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="92"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="79" t="s">
         <v>239</v>
       </c>
@@ -3003,11 +3041,19 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="92"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="82">
+        <v>0</v>
+      </c>
+      <c r="D14" s="65">
+        <v>0</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0</v>
+      </c>
       <c r="F14" s="67">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3026,7 +3072,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="93"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="83"/>
       <c r="C15" s="84"/>
       <c r="D15" s="73"/>
@@ -3049,7 +3095,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="89"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="79"/>
       <c r="C16" s="80"/>
       <c r="D16" s="57"/>
@@ -3072,7 +3118,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="89"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
       <c r="D17" s="65"/>
@@ -3095,7 +3141,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="89"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
       <c r="D18" s="65"/>
@@ -3118,7 +3164,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="89"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="65"/>
@@ -3141,7 +3187,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="89"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="81"/>
       <c r="C20" s="82"/>
       <c r="D20" s="65"/>
@@ -3164,7 +3210,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A21" s="90"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="83"/>
       <c r="C21" s="84"/>
       <c r="D21" s="73"/>
@@ -3187,7 +3233,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="89"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
       <c r="D22" s="57"/>
@@ -3210,7 +3256,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="89"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
       <c r="D23" s="65"/>
@@ -3233,7 +3279,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="89"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
       <c r="D24" s="65"/>
@@ -3256,7 +3302,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="89"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="81"/>
       <c r="C25" s="82"/>
       <c r="D25" s="65"/>
@@ -3279,7 +3325,7 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="89"/>
+      <c r="A26" s="114"/>
       <c r="B26" s="81"/>
       <c r="C26" s="82"/>
       <c r="D26" s="65"/>
@@ -3302,7 +3348,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A27" s="90"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="83"/>
       <c r="C27" s="84"/>
       <c r="D27" s="73"/>
@@ -3325,7 +3371,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="89"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="79"/>
       <c r="C28" s="80"/>
       <c r="D28" s="57"/>
@@ -3348,7 +3394,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="89"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="81"/>
       <c r="C29" s="82"/>
       <c r="D29" s="65"/>
@@ -3371,7 +3417,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="89"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="81"/>
       <c r="C30" s="82"/>
       <c r="D30" s="65"/>
@@ -3394,7 +3440,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="89"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
       <c r="D31" s="65"/>
@@ -3417,7 +3463,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="89"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="81"/>
       <c r="C32" s="82"/>
       <c r="D32" s="65"/>
@@ -3440,7 +3486,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A33" s="90"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="83"/>
       <c r="C33" s="84"/>
       <c r="D33" s="73"/>
@@ -3463,7 +3509,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="89"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="79"/>
       <c r="C34" s="80"/>
       <c r="D34" s="57"/>
@@ -3486,7 +3532,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="89"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="81"/>
       <c r="C35" s="82"/>
       <c r="D35" s="65"/>
@@ -3509,7 +3555,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="89"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="81"/>
       <c r="C36" s="82"/>
       <c r="D36" s="65"/>
@@ -3532,7 +3578,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="89"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
       <c r="D37" s="65"/>
@@ -3555,7 +3601,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="89"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="81"/>
       <c r="C38" s="82"/>
       <c r="D38" s="65"/>
@@ -3578,7 +3624,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A39" s="90"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="83"/>
       <c r="C39" s="84"/>
       <c r="D39" s="73"/>
@@ -3601,7 +3647,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="89"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="79"/>
       <c r="C40" s="80"/>
       <c r="D40" s="57"/>
@@ -3624,7 +3670,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="89"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="79"/>
       <c r="C41" s="82"/>
       <c r="D41" s="65"/>
@@ -3647,7 +3693,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="89"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="79"/>
       <c r="C42" s="82"/>
       <c r="D42" s="65"/>
@@ -3670,7 +3716,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="89"/>
+      <c r="A43" s="114"/>
       <c r="B43" s="79"/>
       <c r="C43" s="82"/>
       <c r="D43" s="65"/>
@@ -3693,7 +3739,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="89"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="79"/>
       <c r="C44" s="82"/>
       <c r="D44" s="65"/>
@@ -3716,7 +3762,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A45" s="90"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="83"/>
       <c r="C45" s="84"/>
       <c r="D45" s="73"/>
@@ -3740,6 +3786,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:A4"/>
@@ -3750,12 +3802,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3834,7 +3880,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="118">
+      <c r="A2" s="119">
         <v>51</v>
       </c>
       <c r="B2" s="27">
@@ -3881,7 +3927,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="120"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="27">
         <v>43085</v>
       </c>
@@ -3973,7 +4019,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="118">
+      <c r="A5" s="119">
         <v>1</v>
       </c>
       <c r="B5" s="28">
@@ -4020,7 +4066,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="120"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="28">
         <v>43103</v>
       </c>
@@ -4065,7 +4111,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="118">
+      <c r="A7" s="119">
         <v>2</v>
       </c>
       <c r="B7" s="28">
@@ -4112,7 +4158,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="120"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="28">
         <v>43109</v>
       </c>
@@ -4157,7 +4203,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="118">
+      <c r="A9" s="119">
         <v>3</v>
       </c>
       <c r="B9" s="28">
@@ -4204,7 +4250,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="120"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="28">
         <v>43116</v>
       </c>
@@ -4296,7 +4342,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="118">
+      <c r="A12" s="119">
         <v>5</v>
       </c>
       <c r="B12" s="28">
@@ -4343,7 +4389,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="119"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="28">
         <v>43130</v>
       </c>
@@ -4388,7 +4434,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="120"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="28">
         <v>43131</v>
       </c>
@@ -4433,7 +4479,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="118">
+      <c r="A15" s="119">
         <v>6</v>
       </c>
       <c r="B15" s="28">
@@ -4480,7 +4526,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="120"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="28">
         <v>43138</v>
       </c>
@@ -4545,7 +4591,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="118">
+      <c r="A18" s="119">
         <v>8</v>
       </c>
       <c r="B18" s="28">
@@ -4592,7 +4638,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="119"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="28">
         <v>43154</v>
       </c>
@@ -4637,7 +4683,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="119"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="28">
         <v>43154</v>
       </c>
@@ -4682,7 +4728,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="119"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="28">
         <v>43154</v>
       </c>
@@ -4727,7 +4773,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="119"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="28">
         <v>43154</v>
       </c>
@@ -4772,7 +4818,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="120"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="28">
         <v>43154</v>
       </c>
@@ -4817,7 +4863,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="118">
+      <c r="A24" s="119">
         <v>9</v>
       </c>
       <c r="B24" s="28">
@@ -4864,7 +4910,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="119"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="28">
         <v>43159</v>
       </c>
@@ -4909,7 +4955,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="119"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="28">
         <v>43159</v>
       </c>
@@ -4954,7 +5000,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="119"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="28">
         <v>43159</v>
       </c>
@@ -4999,7 +5045,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="120"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="28">
         <v>43159</v>
       </c>
@@ -5066,7 +5112,7 @@
         <v>76121106</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>32</v>
@@ -5138,7 +5184,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="118">
+      <c r="A31" s="119">
         <v>12</v>
       </c>
       <c r="B31" s="28">
@@ -5185,7 +5231,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="119"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="28">
         <v>43180</v>
       </c>
@@ -5230,7 +5276,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="119"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="28">
         <v>43180</v>
       </c>
@@ -5275,7 +5321,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="119"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="28">
         <v>43180</v>
       </c>
@@ -5320,7 +5366,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="119"/>
+      <c r="A35" s="120"/>
       <c r="B35" s="28">
         <v>43180</v>
       </c>
@@ -5365,7 +5411,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="119"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="28">
         <v>43180</v>
       </c>
@@ -5410,7 +5456,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="120"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="28">
         <v>43180</v>
       </c>
@@ -5455,7 +5501,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="118">
+      <c r="A38" s="119">
         <v>13</v>
       </c>
       <c r="B38" s="28">
@@ -5502,7 +5548,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="119"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="28">
         <v>43187</v>
       </c>
@@ -5547,7 +5593,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="119"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="28">
         <v>43187</v>
       </c>
@@ -5592,7 +5638,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="119"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="28">
         <v>43187</v>
       </c>
@@ -5637,7 +5683,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="119"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="28">
         <v>43187</v>
       </c>
@@ -5682,7 +5728,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="119"/>
+      <c r="A43" s="120"/>
       <c r="B43" s="28">
         <v>43187</v>
       </c>
@@ -5727,7 +5773,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="119"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="28">
         <v>43187</v>
       </c>
@@ -5772,7 +5818,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="119"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="28">
         <v>43187</v>
       </c>
@@ -5817,7 +5863,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="119"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="28">
         <v>43187</v>
       </c>
@@ -5862,7 +5908,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="119"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="28">
         <v>43187</v>
       </c>
@@ -5907,7 +5953,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="119"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="28">
         <v>43187</v>
       </c>
@@ -5952,7 +5998,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="120"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="28">
         <v>43187</v>
       </c>
@@ -5997,7 +6043,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="121">
+      <c r="A50" s="122">
         <v>14</v>
       </c>
       <c r="B50" s="28">
@@ -6044,7 +6090,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="122"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="28">
         <v>43194</v>
       </c>
@@ -6089,7 +6135,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="122"/>
+      <c r="A52" s="123"/>
       <c r="B52" s="28">
         <v>43194</v>
       </c>
@@ -6134,7 +6180,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="123"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="28">
         <v>43194</v>
       </c>
@@ -6179,7 +6225,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="118">
+      <c r="A54" s="119">
         <v>15</v>
       </c>
       <c r="B54" s="28">
@@ -6226,7 +6272,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="119"/>
+      <c r="A55" s="120"/>
       <c r="B55" s="28">
         <v>43201</v>
       </c>
@@ -6271,7 +6317,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="119"/>
+      <c r="A56" s="120"/>
       <c r="B56" s="28">
         <v>43201</v>
       </c>
@@ -6316,7 +6362,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="120"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="28">
         <v>43201</v>
       </c>
@@ -6408,7 +6454,7 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="118">
+      <c r="A59" s="119">
         <v>17</v>
       </c>
       <c r="B59" s="28">
@@ -6455,7 +6501,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="119"/>
+      <c r="A60" s="120"/>
       <c r="B60" s="28">
         <v>43215</v>
       </c>
@@ -6503,7 +6549,7 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="120"/>
+      <c r="A61" s="121"/>
       <c r="B61" s="28">
         <v>43215</v>
       </c>
@@ -6598,7 +6644,7 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="118">
+      <c r="A63" s="119">
         <v>19</v>
       </c>
       <c r="B63" s="28">
@@ -6645,7 +6691,7 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="120"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="28">
         <v>43229</v>
       </c>
@@ -6690,7 +6736,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="118">
+      <c r="A65" s="119">
         <v>20</v>
       </c>
       <c r="B65" s="28">
@@ -6737,7 +6783,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="119"/>
+      <c r="A66" s="120"/>
       <c r="B66" s="28">
         <v>43235</v>
       </c>
@@ -6782,7 +6828,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="119"/>
+      <c r="A67" s="120"/>
       <c r="B67" s="28">
         <v>43235</v>
       </c>
@@ -6827,7 +6873,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="119"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="28">
         <v>43235</v>
       </c>
@@ -6875,7 +6921,7 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="120"/>
+      <c r="A69" s="121"/>
       <c r="B69" s="28">
         <v>43235</v>
       </c>
@@ -6923,7 +6969,7 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="118">
+      <c r="A70" s="119">
         <v>21</v>
       </c>
       <c r="B70" s="28">
@@ -6939,13 +6985,13 @@
         <v>46</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G70" s="1">
         <v>76157998</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I70" s="21" t="s">
         <v>32</v>
@@ -6957,10 +7003,10 @@
         <v>17602558329</v>
       </c>
       <c r="L70" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M70" s="21" t="s">
         <v>275</v>
-      </c>
-      <c r="M70" s="21" t="s">
-        <v>277</v>
       </c>
       <c r="N70" s="30">
         <v>13771053111</v>
@@ -6970,7 +7016,7 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="119"/>
+      <c r="A71" s="120"/>
       <c r="B71" s="28">
         <v>43243</v>
       </c>
@@ -6984,13 +7030,13 @@
         <v>46</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G71" s="1">
         <v>76161201</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I71" s="21" t="s">
         <v>32</v>
@@ -7002,10 +7048,10 @@
         <v>17602558329</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N71" s="30">
         <v>18841447393</v>
@@ -7015,7 +7061,7 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="120"/>
+      <c r="A72" s="121"/>
       <c r="B72" s="28">
         <v>43243</v>
       </c>
@@ -7029,13 +7075,13 @@
         <v>102</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G72" s="1">
         <v>76152939</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>32</v>
@@ -7058,40 +7104,107 @@
       <c r="O72" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="P72" s="47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
+      <c r="A73" s="119">
+        <v>22</v>
+      </c>
+      <c r="B73" s="28">
+        <v>43250</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="G73" s="1">
+        <v>76133012</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="I73" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M73" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N73" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P73" s="47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="28">
+        <v>43250</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G74" s="1">
+        <v>76157131</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M74" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N74" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P74" s="47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1"/>
@@ -10987,7 +11100,8 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A73:A74"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A2:A3"/>
@@ -11072,7 +11186,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>43</v>
@@ -11095,7 +11209,7 @@
         <v>43186</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>43</v>
@@ -11141,7 +11255,7 @@
         <v>43229</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>43</v>
@@ -11154,17 +11268,17 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="118">
+      <c r="A6" s="119">
         <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C6" s="37">
         <v>43234</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>188</v>
@@ -11173,19 +11287,19 @@
         <v>189</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="119"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C7" s="37">
         <v>43234</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>188</v>
@@ -11194,19 +11308,19 @@
         <v>189</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="119"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C8" s="37">
         <v>43234</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>188</v>
@@ -11215,19 +11329,19 @@
         <v>189</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="119"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C9" s="37">
         <v>43234</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>188</v>
@@ -11236,19 +11350,19 @@
         <v>189</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="120"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="37">
         <v>43236</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>188</v>
@@ -11257,29 +11371,55 @@
         <v>189</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="125"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="A11" s="126">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="37">
+        <v>43248</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="125"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="37">
+        <v>43248</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="125"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -11288,7 +11428,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="125"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
@@ -11297,7 +11437,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="125"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -11306,7 +11446,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="125"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="10"/>
@@ -11315,7 +11455,7 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="125"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="10"/>
@@ -11324,7 +11464,7 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="125"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="10"/>
@@ -11333,7 +11473,7 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="125"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="10"/>
@@ -11342,7 +11482,7 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="125"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="10"/>
@@ -11351,7 +11491,7 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="125"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="10"/>
@@ -11369,7 +11509,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="118"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="9"/>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
@@ -11378,7 +11518,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="119"/>
+      <c r="A24" s="120"/>
       <c r="B24" s="9"/>
       <c r="C24" s="14"/>
       <c r="D24" s="12"/>
@@ -11387,7 +11527,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="119"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="9"/>
       <c r="C25" s="14"/>
       <c r="D25" s="12"/>
@@ -11396,7 +11536,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="119"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="9"/>
       <c r="C26" s="14"/>
       <c r="D26" s="12"/>
@@ -11405,7 +11545,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="119"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -11414,7 +11554,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="119"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -11423,7 +11563,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="119"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -11432,7 +11572,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="119"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -11441,7 +11581,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="119"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -11450,7 +11590,7 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="119"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -11459,7 +11599,7 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="119"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -11468,7 +11608,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="120"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -11477,7 +11617,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="118"/>
+      <c r="A35" s="119"/>
       <c r="B35" s="9"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -11486,7 +11626,7 @@
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="120"/>
       <c r="B36" s="9"/>
       <c r="C36" s="14"/>
       <c r="D36" s="12"/>
@@ -11495,7 +11635,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="9"/>
       <c r="C37" s="14"/>
       <c r="D37" s="12"/>
@@ -11504,7 +11644,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="119"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="9"/>
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
@@ -11513,7 +11653,7 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="119"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -11522,7 +11662,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="119"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -11531,7 +11671,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="119"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -11540,7 +11680,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="119"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -11549,7 +11689,7 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="119"/>
+      <c r="A43" s="120"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -11558,7 +11698,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="119"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -11567,7 +11707,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="119"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -11576,7 +11716,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="120"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -11585,7 +11725,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="14.25">
-      <c r="A47" s="119"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="9"/>
       <c r="C47" s="14"/>
       <c r="D47" s="12"/>
@@ -11594,7 +11734,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="14.25">
-      <c r="A48" s="119"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="9"/>
       <c r="C48" s="14"/>
       <c r="D48" s="12"/>
@@ -11603,7 +11743,7 @@
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="119"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -11612,7 +11752,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="119"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -11621,7 +11761,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="119"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -11630,7 +11770,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="119"/>
+      <c r="A52" s="120"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -11639,7 +11779,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="119"/>
+      <c r="A53" s="120"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -11648,7 +11788,7 @@
       <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="119"/>
+      <c r="A54" s="120"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
@@ -11657,7 +11797,7 @@
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="119"/>
+      <c r="A55" s="120"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
@@ -11666,7 +11806,7 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="120"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="10"/>
@@ -11675,11 +11815,12 @@
       <c r="G56" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A35:A46"/>
     <mergeCell ref="A47:A56"/>
     <mergeCell ref="A23:A34"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
@@ -11732,7 +11873,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="124">
+      <c r="A2" s="125">
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -11750,7 +11891,7 @@
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="120"/>
+      <c r="A3" s="121"/>
       <c r="B3" s="25" t="s">
         <v>233</v>
       </c>
@@ -11768,7 +11909,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="118">
+      <c r="A4" s="119">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -11784,11 +11925,11 @@
         <v>260</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="120"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
@@ -11800,6 +11941,9 @@
       </c>
       <c r="E5" s="25" t="s">
         <v>260</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11831,14 +11975,14 @@
         <v>43190</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="118">
+      <c r="A8" s="119">
         <v>4</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -11848,14 +11992,14 @@
         <v>43191</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="119"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="45" t="s">
         <v>35</v>
       </c>
@@ -11870,7 +12014,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="120"/>
+      <c r="A10" s="121"/>
       <c r="B10" s="49" t="s">
         <v>35</v>
       </c>
@@ -11896,10 +12040,10 @@
         <v>43240</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《实施上线数据统计表》-黄纯伟.xlsx
+++ b/周数据/《实施上线数据统计表》-黄纯伟.xlsx
@@ -12,12 +12,12 @@
     <sheet name="未上线项目明细" sheetId="3" r:id="rId3"/>
     <sheet name="加班明细" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="305">
   <si>
     <t>月份</t>
   </si>
@@ -677,10 +677,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>无锡六府餐饮管理有限公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>南京兴济鸿贸易有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1110,73 +1106,107 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>怒烤烤串（宿迁金鹰店）</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰皇菠萝饭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+  </si>
+  <si>
+    <t>5月28日已调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通通州大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉吴江万宝大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（常州湖塘店）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷江阴青阳店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06月</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23周</t>
+  </si>
+  <si>
+    <t>常熟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金坛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷常熟方塔东街店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>沽涷金坛吾悦店</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>沽涷常熟方塔街店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（宿迁金鹰店）</t>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰皇菠萝饭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>第22周</t>
-  </si>
-  <si>
-    <t>5月28日已调休</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏州</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三千粉南通通州大润发店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三千粉吴江万宝大润发店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺签约100家，目前还有44家未开户，14家未上线，42家已上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺签约100家，目前还有90家未开户，10家未上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（常州湖塘店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间远程上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷江阴青阳店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈芳芳</t>
+    <t>常州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉常州吾悦国际广场店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉常熟大润发店</t>
+  </si>
+  <si>
+    <t>曹诚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄翔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有41家未开户，14家未上线，45家已上线</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1981,7 +2011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,6 +2303,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2357,26 +2399,6 @@
     <xf numFmtId="9" fontId="17" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2395,10 +2417,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2673,10 +2695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2692,76 +2714,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" thickBot="1">
+      <c r="A2" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106" t="s">
+      <c r="E3" s="108"/>
+      <c r="F3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A4" s="103"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="112" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="53" t="s">
+      <c r="E4" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="113"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="116"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="56">
@@ -2774,25 +2796,25 @@
         <v>1</v>
       </c>
       <c r="F5" s="59">
-        <f t="shared" ref="F5:F15" si="0">D5+E5</f>
+        <f t="shared" ref="F5:F14" si="0">D5+E5</f>
         <v>3</v>
       </c>
       <c r="G5" s="60">
-        <f t="shared" ref="G5:G15" si="1">C5-F5</f>
+        <f t="shared" ref="G5:G14" si="1">C5-F5</f>
         <v>1</v>
       </c>
       <c r="H5" s="61">
-        <f t="shared" ref="H5:H15" si="2">E5/F5</f>
+        <f t="shared" ref="H5:H14" si="2">E5/F5</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I5" s="62">
-        <f t="shared" ref="I5:I15" si="3">F5/C5</f>
+        <f t="shared" ref="I5:I14" si="3">F5/C5</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" s="63"/>
       <c r="C6" s="64">
@@ -2823,7 +2845,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="64">
@@ -2854,7 +2876,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="64">
@@ -2885,7 +2907,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="A9" s="88" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="71"/>
       <c r="C9" s="72">
@@ -2915,11 +2937,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="116" t="s">
-        <v>242</v>
+      <c r="A10" s="92" t="s">
+        <v>241</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="80">
         <v>0</v>
@@ -2948,9 +2970,9 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="117"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="82">
         <v>3</v>
@@ -2979,9 +3001,9 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="117"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="82">
         <v>4</v>
@@ -3010,9 +3032,9 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="117"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C13" s="82">
         <v>2</v>
@@ -3040,10 +3062,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="117"/>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A14" s="91"/>
       <c r="B14" s="79" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C14" s="82">
         <v>0</v>
@@ -3071,54 +3093,64 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75">
-        <f t="shared" si="0"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="80">
+        <v>2</v>
+      </c>
+      <c r="D15" s="57">
         <v>0</v>
       </c>
-      <c r="G15" s="76">
-        <f t="shared" si="1"/>
+      <c r="E15" s="58">
+        <v>2</v>
+      </c>
+      <c r="F15" s="59">
+        <f t="shared" ref="F15:F44" si="4">D15+E15</f>
+        <v>2</v>
+      </c>
+      <c r="G15" s="60">
+        <f t="shared" ref="G15:G44" si="5">C15-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="77" t="e">
-        <f t="shared" si="2"/>
+      <c r="H15" s="61">
+        <f t="shared" ref="H15:H44" si="6">E15/F15</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="62">
+        <f t="shared" ref="I15:I44" si="7">F15/C15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="90"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="69" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="78" t="e">
-        <f t="shared" si="3"/>
+      <c r="I16" s="70" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="114"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59">
-        <f t="shared" ref="F16:F45" si="4">D16+E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="60">
-        <f t="shared" ref="G16:G45" si="5">C16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="61" t="e">
-        <f t="shared" ref="H16:H45" si="6">E16/F16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="62" t="e">
-        <f t="shared" ref="I16:I45" si="7">F16/C16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="114"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
       <c r="D17" s="65"/>
@@ -3141,7 +3173,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="114"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
       <c r="D18" s="65"/>
@@ -3164,7 +3196,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="114"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="65"/>
@@ -3186,77 +3218,77 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="114"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67">
+    <row r="20" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A20" s="91"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H20" s="69" t="e">
+      <c r="H20" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="70" t="e">
+      <c r="I20" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75">
+    <row r="21" spans="1:9">
+      <c r="A21" s="90"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H21" s="77" t="e">
+      <c r="H21" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="78" t="e">
+      <c r="I21" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="114"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59">
+      <c r="A22" s="90"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H22" s="61" t="e">
+      <c r="H22" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="62" t="e">
+      <c r="I22" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="114"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
       <c r="D23" s="65"/>
@@ -3279,7 +3311,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="114"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
       <c r="D24" s="65"/>
@@ -3302,7 +3334,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="114"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="81"/>
       <c r="C25" s="82"/>
       <c r="D25" s="65"/>
@@ -3324,77 +3356,77 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="114"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67">
+    <row r="26" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A26" s="91"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H26" s="69" t="e">
+      <c r="H26" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="70" t="e">
+      <c r="I26" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A27" s="115"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75">
+    <row r="27" spans="1:9">
+      <c r="A27" s="90"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H27" s="77" t="e">
+      <c r="H27" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="78" t="e">
+      <c r="I27" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="114"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59">
+      <c r="A28" s="90"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="61" t="e">
+      <c r="H28" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="62" t="e">
+      <c r="I28" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="114"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="81"/>
       <c r="C29" s="82"/>
       <c r="D29" s="65"/>
@@ -3417,7 +3449,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="114"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="81"/>
       <c r="C30" s="82"/>
       <c r="D30" s="65"/>
@@ -3440,7 +3472,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="114"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
       <c r="D31" s="65"/>
@@ -3462,77 +3494,77 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="114"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67">
+    <row r="32" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A32" s="91"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H32" s="69" t="e">
+      <c r="H32" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="70" t="e">
+      <c r="I32" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A33" s="115"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75">
+    <row r="33" spans="1:9">
+      <c r="A33" s="90"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H33" s="77" t="e">
+      <c r="H33" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="78" t="e">
+      <c r="I33" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="114"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59">
+      <c r="A34" s="90"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H34" s="61" t="e">
+      <c r="H34" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="62" t="e">
+      <c r="I34" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="114"/>
+      <c r="A35" s="90"/>
       <c r="B35" s="81"/>
       <c r="C35" s="82"/>
       <c r="D35" s="65"/>
@@ -3555,7 +3587,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="114"/>
+      <c r="A36" s="90"/>
       <c r="B36" s="81"/>
       <c r="C36" s="82"/>
       <c r="D36" s="65"/>
@@ -3578,7 +3610,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="114"/>
+      <c r="A37" s="90"/>
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
       <c r="D37" s="65"/>
@@ -3600,77 +3632,77 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="114"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67">
+    <row r="38" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G38" s="68">
+      <c r="G38" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H38" s="69" t="e">
+      <c r="H38" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="70" t="e">
+      <c r="I38" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75">
+    <row r="39" spans="1:9">
+      <c r="A39" s="90"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G39" s="76">
+      <c r="G39" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H39" s="77" t="e">
+      <c r="H39" s="61" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="78" t="e">
+      <c r="I39" s="62" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="114"/>
+      <c r="A40" s="90"/>
       <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="59">
+      <c r="C40" s="82"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="68">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H40" s="61" t="e">
+      <c r="H40" s="69" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="62" t="e">
+      <c r="I40" s="70" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="114"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="79"/>
       <c r="C41" s="82"/>
       <c r="D41" s="65"/>
@@ -3693,7 +3725,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="114"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="79"/>
       <c r="C42" s="82"/>
       <c r="D42" s="65"/>
@@ -3716,7 +3748,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="114"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="79"/>
       <c r="C43" s="82"/>
       <c r="D43" s="65"/>
@@ -3738,60 +3770,32 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="114"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67">
+    <row r="44" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A44" s="91"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="76">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H44" s="69" t="e">
+      <c r="H44" s="77" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="70" t="e">
+      <c r="I44" s="78" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A45" s="115"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="77" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="78" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:A4"/>
@@ -3802,6 +3806,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3880,7 +3889,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="119">
+      <c r="A2" s="117">
         <v>51</v>
       </c>
       <c r="B2" s="27">
@@ -3927,7 +3936,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="121"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="27">
         <v>43085</v>
       </c>
@@ -4019,7 +4028,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="119">
+      <c r="A5" s="117">
         <v>1</v>
       </c>
       <c r="B5" s="28">
@@ -4066,7 +4075,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="121"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="28">
         <v>43103</v>
       </c>
@@ -4111,7 +4120,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="119">
+      <c r="A7" s="117">
         <v>2</v>
       </c>
       <c r="B7" s="28">
@@ -4158,7 +4167,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="121"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="28">
         <v>43109</v>
       </c>
@@ -4203,7 +4212,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="119">
+      <c r="A9" s="117">
         <v>3</v>
       </c>
       <c r="B9" s="28">
@@ -4250,7 +4259,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="121"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="28">
         <v>43116</v>
       </c>
@@ -4342,7 +4351,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="119">
+      <c r="A12" s="117">
         <v>5</v>
       </c>
       <c r="B12" s="28">
@@ -4389,7 +4398,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="120"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="28">
         <v>43130</v>
       </c>
@@ -4434,7 +4443,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="121"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="28">
         <v>43131</v>
       </c>
@@ -4479,7 +4488,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="119">
+      <c r="A15" s="117">
         <v>6</v>
       </c>
       <c r="B15" s="28">
@@ -4526,7 +4535,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="121"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="28">
         <v>43138</v>
       </c>
@@ -4591,7 +4600,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="119">
+      <c r="A18" s="117">
         <v>8</v>
       </c>
       <c r="B18" s="28">
@@ -4638,7 +4647,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="120"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="28">
         <v>43154</v>
       </c>
@@ -4683,7 +4692,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="120"/>
+      <c r="A20" s="118"/>
       <c r="B20" s="28">
         <v>43154</v>
       </c>
@@ -4728,7 +4737,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="120"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="28">
         <v>43154</v>
       </c>
@@ -4773,7 +4782,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="120"/>
+      <c r="A22" s="118"/>
       <c r="B22" s="28">
         <v>43154</v>
       </c>
@@ -4818,7 +4827,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="121"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="28">
         <v>43154</v>
       </c>
@@ -4863,7 +4872,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="119">
+      <c r="A24" s="117">
         <v>9</v>
       </c>
       <c r="B24" s="28">
@@ -4910,7 +4919,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="120"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="28">
         <v>43159</v>
       </c>
@@ -4955,7 +4964,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="120"/>
+      <c r="A26" s="118"/>
       <c r="B26" s="28">
         <v>43159</v>
       </c>
@@ -5000,7 +5009,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="120"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="28">
         <v>43159</v>
       </c>
@@ -5045,7 +5054,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="121"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="28">
         <v>43159</v>
       </c>
@@ -5112,7 +5121,7 @@
         <v>76121106</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>32</v>
@@ -5184,7 +5193,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="119">
+      <c r="A31" s="117">
         <v>12</v>
       </c>
       <c r="B31" s="28">
@@ -5231,7 +5240,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="120"/>
+      <c r="A32" s="118"/>
       <c r="B32" s="28">
         <v>43180</v>
       </c>
@@ -5276,7 +5285,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="120"/>
+      <c r="A33" s="118"/>
       <c r="B33" s="28">
         <v>43180</v>
       </c>
@@ -5321,7 +5330,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="120"/>
+      <c r="A34" s="118"/>
       <c r="B34" s="28">
         <v>43180</v>
       </c>
@@ -5366,7 +5375,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="120"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="28">
         <v>43180</v>
       </c>
@@ -5411,7 +5420,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="120"/>
+      <c r="A36" s="118"/>
       <c r="B36" s="28">
         <v>43180</v>
       </c>
@@ -5456,7 +5465,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="121"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="28">
         <v>43180</v>
       </c>
@@ -5501,7 +5510,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="119">
+      <c r="A38" s="117">
         <v>13</v>
       </c>
       <c r="B38" s="28">
@@ -5548,7 +5557,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="120"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="28">
         <v>43187</v>
       </c>
@@ -5593,7 +5602,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="120"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="28">
         <v>43187</v>
       </c>
@@ -5638,7 +5647,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="120"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="28">
         <v>43187</v>
       </c>
@@ -5683,7 +5692,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="120"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="28">
         <v>43187</v>
       </c>
@@ -5728,7 +5737,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="120"/>
+      <c r="A43" s="118"/>
       <c r="B43" s="28">
         <v>43187</v>
       </c>
@@ -5773,7 +5782,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="120"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="28">
         <v>43187</v>
       </c>
@@ -5818,7 +5827,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="120"/>
+      <c r="A45" s="118"/>
       <c r="B45" s="28">
         <v>43187</v>
       </c>
@@ -5863,7 +5872,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="120"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="28">
         <v>43187</v>
       </c>
@@ -5908,7 +5917,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="120"/>
+      <c r="A47" s="118"/>
       <c r="B47" s="28">
         <v>43187</v>
       </c>
@@ -5953,7 +5962,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="120"/>
+      <c r="A48" s="118"/>
       <c r="B48" s="28">
         <v>43187</v>
       </c>
@@ -5998,7 +6007,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="121"/>
+      <c r="A49" s="119"/>
       <c r="B49" s="28">
         <v>43187</v>
       </c>
@@ -6043,7 +6052,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="122">
+      <c r="A50" s="120">
         <v>14</v>
       </c>
       <c r="B50" s="28">
@@ -6053,19 +6062,19 @@
         <v>29</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G50" s="30">
         <v>76128879</v>
       </c>
       <c r="H50" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>32</v>
@@ -6077,10 +6086,10 @@
         <v>17602558329</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M50" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N50" s="30">
         <v>13913957701</v>
@@ -6090,7 +6099,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="123"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="28">
         <v>43194</v>
       </c>
@@ -6098,19 +6107,19 @@
         <v>29</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G51" s="30">
         <v>76128880</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I51" s="21" t="s">
         <v>32</v>
@@ -6122,10 +6131,10 @@
         <v>17602558329</v>
       </c>
       <c r="L51" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M51" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="M51" s="21" t="s">
-        <v>178</v>
       </c>
       <c r="N51" s="30">
         <v>18806742898</v>
@@ -6135,7 +6144,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="123"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="28">
         <v>43194</v>
       </c>
@@ -6180,7 +6189,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="124"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="28">
         <v>43194</v>
       </c>
@@ -6225,7 +6234,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="119">
+      <c r="A54" s="117">
         <v>15</v>
       </c>
       <c r="B54" s="28">
@@ -6238,16 +6247,16 @@
         <v>88</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G54" s="1">
         <v>76132983</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I54" s="21" t="s">
         <v>32</v>
@@ -6272,7 +6281,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="120"/>
+      <c r="A55" s="118"/>
       <c r="B55" s="28">
         <v>43201</v>
       </c>
@@ -6283,16 +6292,16 @@
         <v>88</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G55" s="1">
         <v>76132985</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I55" s="21" t="s">
         <v>32</v>
@@ -6317,7 +6326,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="120"/>
+      <c r="A56" s="118"/>
       <c r="B56" s="28">
         <v>43201</v>
       </c>
@@ -6328,16 +6337,16 @@
         <v>88</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G56" s="1">
         <v>76132987</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I56" s="21" t="s">
         <v>32</v>
@@ -6362,7 +6371,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="121"/>
+      <c r="A57" s="119"/>
       <c r="B57" s="28">
         <v>43201</v>
       </c>
@@ -6373,16 +6382,16 @@
         <v>88</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G57" s="1">
         <v>76138839</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I57" s="21" t="s">
         <v>32</v>
@@ -6417,19 +6426,19 @@
         <v>29</v>
       </c>
       <c r="D58" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="F58" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>192</v>
       </c>
       <c r="G58" s="1">
         <v>76159127</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I58" s="21" t="s">
         <v>32</v>
@@ -6441,10 +6450,10 @@
         <v>17602558329</v>
       </c>
       <c r="L58" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M58" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="M58" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="N58" s="1">
         <v>18750225127</v>
@@ -6454,7 +6463,7 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="119">
+      <c r="A59" s="117">
         <v>17</v>
       </c>
       <c r="B59" s="28">
@@ -6464,10 +6473,10 @@
         <v>29</v>
       </c>
       <c r="D59" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>197</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>55</v>
@@ -6476,7 +6485,7 @@
         <v>76155318</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I59" s="21" t="s">
         <v>32</v>
@@ -6488,10 +6497,10 @@
         <v>17602558329</v>
       </c>
       <c r="L59" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M59" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="M59" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="N59" s="30">
         <v>17327996435</v>
@@ -6501,7 +6510,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="120"/>
+      <c r="A60" s="118"/>
       <c r="B60" s="28">
         <v>43215</v>
       </c>
@@ -6515,13 +6524,13 @@
         <v>165</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G60" s="1">
         <v>76156911</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I60" s="21" t="s">
         <v>32</v>
@@ -6545,11 +6554,11 @@
         <v>39</v>
       </c>
       <c r="P60" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="121"/>
+      <c r="A61" s="119"/>
       <c r="B61" s="28">
         <v>43215</v>
       </c>
@@ -6563,13 +6572,13 @@
         <v>165</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G61" s="1">
         <v>76157133</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>32</v>
@@ -6593,7 +6602,7 @@
         <v>39</v>
       </c>
       <c r="P61" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6607,19 +6616,19 @@
         <v>29</v>
       </c>
       <c r="D62" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>207</v>
       </c>
       <c r="G62" s="1">
         <v>76163685</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I62" s="21" t="s">
         <v>32</v>
@@ -6631,10 +6640,10 @@
         <v>17602558329</v>
       </c>
       <c r="L62" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M62" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="M62" s="21" t="s">
-        <v>209</v>
       </c>
       <c r="N62" s="1">
         <v>15380862222</v>
@@ -6644,7 +6653,7 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="119">
+      <c r="A63" s="117">
         <v>19</v>
       </c>
       <c r="B63" s="28">
@@ -6666,7 +6675,7 @@
         <v>76161175</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I63" s="21" t="s">
         <v>32</v>
@@ -6678,10 +6687,10 @@
         <v>17602558329</v>
       </c>
       <c r="L63" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M63" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="M63" s="21" t="s">
-        <v>212</v>
       </c>
       <c r="N63" s="1">
         <v>13813957852</v>
@@ -6691,7 +6700,7 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="121"/>
+      <c r="A64" s="119"/>
       <c r="B64" s="28">
         <v>43229</v>
       </c>
@@ -6705,13 +6714,13 @@
         <v>31</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G64" s="1">
         <v>76161228</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I64" s="21" t="s">
         <v>32</v>
@@ -6723,10 +6732,10 @@
         <v>17602558329</v>
       </c>
       <c r="L64" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M64" s="21" t="s">
         <v>215</v>
-      </c>
-      <c r="M64" s="21" t="s">
-        <v>216</v>
       </c>
       <c r="N64" s="1">
         <v>18661144557</v>
@@ -6736,7 +6745,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="119">
+      <c r="A65" s="117">
         <v>20</v>
       </c>
       <c r="B65" s="28">
@@ -6746,19 +6755,19 @@
         <v>29</v>
       </c>
       <c r="D65" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>218</v>
       </c>
       <c r="G65" s="1">
         <v>76167901</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I65" s="21" t="s">
         <v>32</v>
@@ -6770,7 +6779,7 @@
         <v>17602558329</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M65" s="21" t="s">
         <v>38</v>
@@ -6783,7 +6792,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="120"/>
+      <c r="A66" s="118"/>
       <c r="B66" s="28">
         <v>43235</v>
       </c>
@@ -6791,19 +6800,19 @@
         <v>29</v>
       </c>
       <c r="D66" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>221</v>
       </c>
       <c r="G66" s="1">
         <v>76157973</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I66" s="21" t="s">
         <v>32</v>
@@ -6818,7 +6827,7 @@
         <v>140</v>
       </c>
       <c r="M66" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N66" s="11">
         <v>13222071793</v>
@@ -6828,7 +6837,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="120"/>
+      <c r="A67" s="118"/>
       <c r="B67" s="28">
         <v>43235</v>
       </c>
@@ -6836,19 +6845,19 @@
         <v>29</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G67" s="1">
         <v>76161735</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I67" s="21" t="s">
         <v>32</v>
@@ -6863,7 +6872,7 @@
         <v>140</v>
       </c>
       <c r="M67" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N67" s="11">
         <v>13222071793</v>
@@ -6873,7 +6882,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="120"/>
+      <c r="A68" s="118"/>
       <c r="B68" s="28">
         <v>43235</v>
       </c>
@@ -6884,16 +6893,16 @@
         <v>88</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G68" s="1">
         <v>76133002</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I68" s="21" t="s">
         <v>32</v>
@@ -6917,11 +6926,11 @@
         <v>39</v>
       </c>
       <c r="P68" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="121"/>
+      <c r="A69" s="119"/>
       <c r="B69" s="28">
         <v>43235</v>
       </c>
@@ -6932,16 +6941,16 @@
         <v>88</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G69" s="1">
         <v>76152937</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I69" s="21" t="s">
         <v>32</v>
@@ -6965,11 +6974,11 @@
         <v>39</v>
       </c>
       <c r="P69" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="119">
+      <c r="A70" s="117">
         <v>21</v>
       </c>
       <c r="B70" s="28">
@@ -6985,13 +6994,13 @@
         <v>46</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G70" s="1">
         <v>76157998</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I70" s="21" t="s">
         <v>32</v>
@@ -7003,10 +7012,10 @@
         <v>17602558329</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M70" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N70" s="30">
         <v>13771053111</v>
@@ -7016,7 +7025,7 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="120"/>
+      <c r="A71" s="118"/>
       <c r="B71" s="28">
         <v>43243</v>
       </c>
@@ -7030,13 +7039,13 @@
         <v>46</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G71" s="1">
         <v>76161201</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I71" s="21" t="s">
         <v>32</v>
@@ -7048,10 +7057,10 @@
         <v>17602558329</v>
       </c>
       <c r="L71" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M71" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="M71" s="21" t="s">
-        <v>275</v>
       </c>
       <c r="N71" s="30">
         <v>18841447393</v>
@@ -7061,7 +7070,7 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="121"/>
+      <c r="A72" s="119"/>
       <c r="B72" s="28">
         <v>43243</v>
       </c>
@@ -7075,13 +7084,13 @@
         <v>102</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G72" s="1">
         <v>76152939</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>32</v>
@@ -7105,11 +7114,11 @@
         <v>39</v>
       </c>
       <c r="P72" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="119">
+      <c r="A73" s="117">
         <v>22</v>
       </c>
       <c r="B73" s="28">
@@ -7125,13 +7134,13 @@
         <v>102</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G73" s="1">
         <v>76133012</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I73" s="21" t="s">
         <v>32</v>
@@ -7155,11 +7164,11 @@
         <v>39</v>
       </c>
       <c r="P73" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="121"/>
+      <c r="A74" s="119"/>
       <c r="B74" s="28">
         <v>43250</v>
       </c>
@@ -7173,13 +7182,13 @@
         <v>102</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G74" s="1">
         <v>76157131</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I74" s="21" t="s">
         <v>32</v>
@@ -7203,76 +7212,196 @@
         <v>39</v>
       </c>
       <c r="P74" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="A75" s="117">
+        <v>23</v>
+      </c>
+      <c r="B75" s="28">
+        <v>43257</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="1">
+        <v>76172757</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="I75" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="N75" s="30">
+        <v>18962302886</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="28">
+        <v>43257</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="G76" s="1">
+        <v>76172137</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I76" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K76" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="M76" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="N76" s="30">
+        <v>13585401224</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+      <c r="A77" s="118"/>
+      <c r="B77" s="28">
+        <v>43257</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" s="21">
+        <v>76157571</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I77" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L77" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M77" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N77" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P77" s="47" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+      <c r="A78" s="119"/>
+      <c r="B78" s="28">
+        <v>43257</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="G78" s="21">
+        <v>76176032</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="I78" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M78" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N78" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P78" s="47" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1"/>
@@ -11100,10 +11229,8 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A38:A49"/>
+  <mergeCells count="18">
+    <mergeCell ref="A75:A78"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -11113,11 +11240,14 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A38:A49"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A50:A53"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
@@ -11135,7 +11265,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -11186,7 +11316,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>43</v>
@@ -11198,230 +11328,192 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27">
-      <c r="A3" s="45">
-        <v>13</v>
+    <row r="3" spans="1:7">
+      <c r="A3" s="49">
+        <v>19</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="C3" s="37">
-        <v>43186</v>
+        <v>43227</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="49">
         <v>19</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C4" s="37">
-        <v>43227</v>
+        <v>43229</v>
       </c>
       <c r="D4" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="117">
+        <v>20</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="37">
+        <v>43234</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27">
-      <c r="A5" s="49">
-        <v>19</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="37">
-        <v>43229</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="G5" s="21" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="119">
-        <v>20</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="9" t="s">
         <v>278</v>
       </c>
       <c r="C6" s="37">
         <v>43234</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="120"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="25" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C7" s="37">
-        <v>43234</v>
+        <v>43236</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="G7" s="21" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="120"/>
-      <c r="B8" s="25" t="s">
-        <v>280</v>
+      <c r="A8" s="123">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="C8" s="37">
-        <v>43234</v>
+        <v>43248</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="G8" s="21" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="120"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="9" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C9" s="37">
-        <v>43234</v>
+        <v>43248</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>189</v>
-      </c>
       <c r="G9" s="21" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="121"/>
-      <c r="B10" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="37">
-        <v>43236</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>263</v>
-      </c>
+      <c r="A10" s="89"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="126">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="37">
-        <v>43248</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>296</v>
-      </c>
+      <c r="A11" s="89"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="126"/>
-      <c r="B12" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="37">
-        <v>43248</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>296</v>
-      </c>
+      <c r="A12" s="89"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="89"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -11429,8 +11521,8 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="89"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -11438,8 +11530,8 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="89"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -11473,79 +11565,79 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="89"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="89"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:7" ht="14.25">
+      <c r="A20" s="117"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="89"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25">
+      <c r="A21" s="118"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25">
+      <c r="A22" s="118"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="119"/>
+      <c r="A23" s="118"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="12"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="120"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="118"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="120"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="118"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="120"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="118"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="120"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -11554,7 +11646,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="120"/>
+      <c r="A28" s="118"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -11563,7 +11655,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="120"/>
+      <c r="A29" s="118"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -11572,7 +11664,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="120"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -11581,7 +11673,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="120"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -11589,71 +11681,71 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="120"/>
+    <row r="32" spans="1:7" ht="14.25">
+      <c r="A32" s="117"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="120"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25">
+      <c r="A33" s="118"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="121"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25">
+      <c r="A34" s="118"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="118"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="12"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="120"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="118"/>
       <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="120"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="118"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="120"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="118"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="15"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="120"/>
+      <c r="A39" s="118"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -11662,7 +11754,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="120"/>
+      <c r="A40" s="118"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -11671,7 +11763,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="120"/>
+      <c r="A41" s="118"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -11680,7 +11772,7 @@
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="120"/>
+      <c r="A42" s="118"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -11689,7 +11781,7 @@
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="120"/>
+      <c r="A43" s="119"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -11697,26 +11789,26 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="120"/>
+    <row r="44" spans="1:7" ht="14.25">
+      <c r="A44" s="118"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="120"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25">
+      <c r="A45" s="118"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="121"/>
+      <c r="A46" s="118"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -11724,26 +11816,26 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="14.25">
-      <c r="A47" s="120"/>
+    <row r="47" spans="1:7">
+      <c r="A47" s="118"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.25">
-      <c r="A48" s="120"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="118"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="12"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="15"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="120"/>
+      <c r="A49" s="118"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -11752,7 +11844,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="120"/>
+      <c r="A50" s="118"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -11761,7 +11853,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="120"/>
+      <c r="A51" s="118"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -11770,7 +11862,7 @@
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="120"/>
+      <c r="A52" s="118"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
@@ -11779,7 +11871,7 @@
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="120"/>
+      <c r="A53" s="119"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -11787,40 +11879,13 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="120"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="120"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="121"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
@@ -11842,7 +11907,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11866,14 +11931,14 @@
         <v>28</v>
       </c>
       <c r="D1" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="125">
+      <c r="A2" s="124">
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -11883,33 +11948,33 @@
         <v>43079</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="121"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" s="35">
         <v>43099</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="119">
+      <c r="A4" s="117">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -11919,17 +11984,17 @@
         <v>43127</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="121"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
@@ -11937,13 +12002,13 @@
         <v>43128</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11957,10 +12022,10 @@
         <v>43144</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="51"/>
     </row>
@@ -11975,14 +12040,14 @@
         <v>43190</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="119">
+      <c r="A8" s="117">
         <v>4</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -11992,14 +12057,14 @@
         <v>43191</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="120"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="45" t="s">
         <v>35</v>
       </c>
@@ -12007,14 +12072,14 @@
         <v>43197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="121"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="49" t="s">
         <v>35</v>
       </c>
@@ -12022,10 +12087,10 @@
         <v>43219</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" s="51"/>
     </row>
@@ -12040,10 +12105,10 @@
         <v>43240</v>
       </c>
       <c r="D11" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>266</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/周数据/《实施上线数据统计表》-黄纯伟.xlsx
+++ b/周数据/《实施上线数据统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="314">
   <si>
     <t>月份</t>
   </si>
@@ -1038,176 +1038,207 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>苗酸鱼粉无锡火车站店实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗酸鱼粉无锡万达店实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗小坛南京中央店实施</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月24日已调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>常熟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷常熟世茂中心店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷成都茂业店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙党平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏君</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板娘</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通观音山大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（宿迁金鹰店）</t>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰皇菠萝饭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+  </si>
+  <si>
+    <t>5月28日已调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉南通通州大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉吴江万宝大润发店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒烤烤串（常州湖塘店）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟商户约时间远程上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷江阴青阳店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈芳芳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>06月</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23周</t>
+  </si>
+  <si>
+    <t>常熟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金坛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷常熟方塔东街店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷金坛吾悦店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉常州吾悦国际广场店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三千粉常熟大润发店</t>
+  </si>
+  <si>
+    <t>曹诚</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄翔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰餐厅南京建邺河西金鹰店驻店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼兰餐厅南京鼓楼虹桥店驻店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24周</t>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽涷上海临空店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>张耀东</t>
+  </si>
+  <si>
+    <t>15618725855‬</t>
+  </si>
+  <si>
+    <t>沽涷成都农大店</t>
+  </si>
+  <si>
+    <t>沽涷宁波银泰城店</t>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有39家未开户，16家未上线，45家已上线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>鸭得堡（瞻园路店）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>堵雪军</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗酸鱼粉无锡火车站店实施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗酸鱼粉无锡万达店实施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗小坛南京中央店实施</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>调休</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月24日已调休</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>常熟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>成都</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷常熟世茂中心店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷成都茂业店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙党平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏君</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板娘</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三千粉南通观音山大润发店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷上海临空店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（宿迁金鹰店）</t>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰皇菠萝饭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>第22周</t>
-  </si>
-  <si>
-    <t>5月28日已调休</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>南通</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏州</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三千粉南通通州大润发店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三千粉吴江万宝大润发店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>怒烤烤串（常州湖塘店）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间远程上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟商户约时间上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷江阴青阳店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈芳芳</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>06月</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>第23周</t>
-  </si>
-  <si>
-    <t>常熟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金坛</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷常熟方塔东街店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>沽涷金坛吾悦店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>常州</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三千粉常州吾悦国际广场店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>三千粉常熟大润发店</t>
-  </si>
-  <si>
-    <t>曹诚</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄翔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>老板</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺签约100家，目前还有41家未开户，14家未上线，45家已上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>刘超</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2011,7 +2042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2303,6 +2334,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2402,10 +2439,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2698,7 +2735,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2714,72 +2751,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109" t="s">
+      <c r="E3" s="110"/>
+      <c r="F3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="113" t="s">
+      <c r="H3" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="107"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="53" t="s">
         <v>235</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="116"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="86" t="s">
@@ -2937,7 +2974,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="94" t="s">
         <v>241</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -2970,7 +3007,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="90"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="79" t="s">
         <v>248</v>
       </c>
@@ -3001,7 +3038,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="90"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="79" t="s">
         <v>237</v>
       </c>
@@ -3032,7 +3069,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="90"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="79" t="s">
         <v>238</v>
       </c>
@@ -3063,9 +3100,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A14" s="91"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="79" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C14" s="82">
         <v>0</v>
@@ -3094,11 +3131,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="92" t="s">
-        <v>292</v>
+      <c r="A15" s="94" t="s">
+        <v>288</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C15" s="80">
         <v>2</v>
@@ -3127,30 +3164,38 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="90"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="82">
+        <v>1</v>
+      </c>
+      <c r="D16" s="65">
+        <v>1</v>
+      </c>
+      <c r="E16" s="66">
+        <v>1</v>
+      </c>
       <c r="F16" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="69" t="e">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="69">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="70" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="70">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="90"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
       <c r="D17" s="65"/>
@@ -3173,7 +3218,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="90"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="81"/>
       <c r="C18" s="82"/>
       <c r="D18" s="65"/>
@@ -3196,7 +3241,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="90"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="65"/>
@@ -3219,7 +3264,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A20" s="91"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84"/>
       <c r="D20" s="73"/>
@@ -3242,7 +3287,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="90"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="79"/>
       <c r="C21" s="80"/>
       <c r="D21" s="57"/>
@@ -3265,7 +3310,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="90"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="81"/>
       <c r="C22" s="82"/>
       <c r="D22" s="65"/>
@@ -3288,7 +3333,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="90"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="81"/>
       <c r="C23" s="82"/>
       <c r="D23" s="65"/>
@@ -3311,7 +3356,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="90"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="81"/>
       <c r="C24" s="82"/>
       <c r="D24" s="65"/>
@@ -3334,7 +3379,7 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="90"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="81"/>
       <c r="C25" s="82"/>
       <c r="D25" s="65"/>
@@ -3357,7 +3402,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A26" s="91"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="83"/>
       <c r="C26" s="84"/>
       <c r="D26" s="73"/>
@@ -3380,7 +3425,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="90"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="57"/>
@@ -3403,7 +3448,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="90"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
       <c r="D28" s="65"/>
@@ -3426,7 +3471,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="90"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="81"/>
       <c r="C29" s="82"/>
       <c r="D29" s="65"/>
@@ -3449,7 +3494,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="90"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="81"/>
       <c r="C30" s="82"/>
       <c r="D30" s="65"/>
@@ -3472,7 +3517,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="90"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="81"/>
       <c r="C31" s="82"/>
       <c r="D31" s="65"/>
@@ -3495,7 +3540,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A32" s="91"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="83"/>
       <c r="C32" s="84"/>
       <c r="D32" s="73"/>
@@ -3518,7 +3563,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="90"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="79"/>
       <c r="C33" s="80"/>
       <c r="D33" s="57"/>
@@ -3541,7 +3586,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="90"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="81"/>
       <c r="C34" s="82"/>
       <c r="D34" s="65"/>
@@ -3564,7 +3609,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="90"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="81"/>
       <c r="C35" s="82"/>
       <c r="D35" s="65"/>
@@ -3587,7 +3632,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="90"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="81"/>
       <c r="C36" s="82"/>
       <c r="D36" s="65"/>
@@ -3610,7 +3655,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="90"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
       <c r="D37" s="65"/>
@@ -3633,7 +3678,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A38" s="91"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="83"/>
       <c r="C38" s="84"/>
       <c r="D38" s="73"/>
@@ -3656,7 +3701,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="90"/>
+      <c r="A39" s="92"/>
       <c r="B39" s="79"/>
       <c r="C39" s="80"/>
       <c r="D39" s="57"/>
@@ -3679,7 +3724,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="90"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="79"/>
       <c r="C40" s="82"/>
       <c r="D40" s="65"/>
@@ -3702,7 +3747,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="90"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="79"/>
       <c r="C41" s="82"/>
       <c r="D41" s="65"/>
@@ -3725,7 +3770,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="90"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="79"/>
       <c r="C42" s="82"/>
       <c r="D42" s="65"/>
@@ -3748,7 +3793,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="90"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="79"/>
       <c r="C43" s="82"/>
       <c r="D43" s="65"/>
@@ -3771,7 +3816,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A44" s="91"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="83"/>
       <c r="C44" s="84"/>
       <c r="D44" s="73"/>
@@ -3889,7 +3934,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="117">
+      <c r="A2" s="119">
         <v>51</v>
       </c>
       <c r="B2" s="27">
@@ -3936,7 +3981,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="119"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="27">
         <v>43085</v>
       </c>
@@ -4028,7 +4073,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="117">
+      <c r="A5" s="119">
         <v>1</v>
       </c>
       <c r="B5" s="28">
@@ -4075,7 +4120,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="119"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="28">
         <v>43103</v>
       </c>
@@ -4120,7 +4165,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="117">
+      <c r="A7" s="119">
         <v>2</v>
       </c>
       <c r="B7" s="28">
@@ -4167,7 +4212,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="119"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="28">
         <v>43109</v>
       </c>
@@ -4212,7 +4257,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="117">
+      <c r="A9" s="119">
         <v>3</v>
       </c>
       <c r="B9" s="28">
@@ -4259,7 +4304,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="119"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="28">
         <v>43116</v>
       </c>
@@ -4351,7 +4396,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="117">
+      <c r="A12" s="119">
         <v>5</v>
       </c>
       <c r="B12" s="28">
@@ -4398,7 +4443,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="118"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="28">
         <v>43130</v>
       </c>
@@ -4443,7 +4488,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="119"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="28">
         <v>43131</v>
       </c>
@@ -4488,7 +4533,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="117">
+      <c r="A15" s="119">
         <v>6</v>
       </c>
       <c r="B15" s="28">
@@ -4535,7 +4580,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="119"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="28">
         <v>43138</v>
       </c>
@@ -4600,7 +4645,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="117">
+      <c r="A18" s="119">
         <v>8</v>
       </c>
       <c r="B18" s="28">
@@ -4647,7 +4692,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="118"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="28">
         <v>43154</v>
       </c>
@@ -4692,7 +4737,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="118"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="28">
         <v>43154</v>
       </c>
@@ -4737,7 +4782,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="118"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="28">
         <v>43154</v>
       </c>
@@ -4782,7 +4827,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="118"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="28">
         <v>43154</v>
       </c>
@@ -4827,7 +4872,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="119"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="28">
         <v>43154</v>
       </c>
@@ -4872,7 +4917,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="117">
+      <c r="A24" s="119">
         <v>9</v>
       </c>
       <c r="B24" s="28">
@@ -4919,7 +4964,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="118"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="28">
         <v>43159</v>
       </c>
@@ -4964,7 +5009,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="118"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="28">
         <v>43159</v>
       </c>
@@ -5009,7 +5054,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="118"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="28">
         <v>43159</v>
       </c>
@@ -5054,7 +5099,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="119"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="28">
         <v>43159</v>
       </c>
@@ -5121,7 +5166,7 @@
         <v>76121106</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>32</v>
@@ -5193,7 +5238,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="117">
+      <c r="A31" s="119">
         <v>12</v>
       </c>
       <c r="B31" s="28">
@@ -5240,7 +5285,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="118"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="28">
         <v>43180</v>
       </c>
@@ -5285,7 +5330,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="118"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="28">
         <v>43180</v>
       </c>
@@ -5330,7 +5375,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="118"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="28">
         <v>43180</v>
       </c>
@@ -5375,7 +5420,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="118"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="28">
         <v>43180</v>
       </c>
@@ -5420,7 +5465,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="118"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="28">
         <v>43180</v>
       </c>
@@ -5465,7 +5510,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="119"/>
+      <c r="A37" s="120"/>
       <c r="B37" s="28">
         <v>43180</v>
       </c>
@@ -5510,7 +5555,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="117">
+      <c r="A38" s="119">
         <v>13</v>
       </c>
       <c r="B38" s="28">
@@ -5557,7 +5602,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="118"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="28">
         <v>43187</v>
       </c>
@@ -5602,7 +5647,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="118"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="28">
         <v>43187</v>
       </c>
@@ -5647,7 +5692,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="118"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="28">
         <v>43187</v>
       </c>
@@ -5692,7 +5737,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="118"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="28">
         <v>43187</v>
       </c>
@@ -5737,7 +5782,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="118"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="28">
         <v>43187</v>
       </c>
@@ -5782,7 +5827,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="118"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="28">
         <v>43187</v>
       </c>
@@ -5827,7 +5872,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="118"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="28">
         <v>43187</v>
       </c>
@@ -5872,7 +5917,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="118"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="28">
         <v>43187</v>
       </c>
@@ -5917,7 +5962,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="118"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="28">
         <v>43187</v>
       </c>
@@ -5962,7 +6007,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="118"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="28">
         <v>43187</v>
       </c>
@@ -6007,7 +6052,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="119"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="28">
         <v>43187</v>
       </c>
@@ -6052,7 +6097,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="120">
+      <c r="A50" s="122">
         <v>14</v>
       </c>
       <c r="B50" s="28">
@@ -6099,7 +6144,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="121"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="28">
         <v>43194</v>
       </c>
@@ -6144,7 +6189,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="121"/>
+      <c r="A52" s="123"/>
       <c r="B52" s="28">
         <v>43194</v>
       </c>
@@ -6189,7 +6234,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="122"/>
+      <c r="A53" s="124"/>
       <c r="B53" s="28">
         <v>43194</v>
       </c>
@@ -6234,7 +6279,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="117">
+      <c r="A54" s="119">
         <v>15</v>
       </c>
       <c r="B54" s="28">
@@ -6281,7 +6326,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="118"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="28">
         <v>43201</v>
       </c>
@@ -6326,7 +6371,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="118"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="28">
         <v>43201</v>
       </c>
@@ -6371,7 +6416,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="119"/>
+      <c r="A57" s="120"/>
       <c r="B57" s="28">
         <v>43201</v>
       </c>
@@ -6463,7 +6508,7 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="117">
+      <c r="A59" s="119">
         <v>17</v>
       </c>
       <c r="B59" s="28">
@@ -6510,7 +6555,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="118"/>
+      <c r="A60" s="121"/>
       <c r="B60" s="28">
         <v>43215</v>
       </c>
@@ -6558,7 +6603,7 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="119"/>
+      <c r="A61" s="120"/>
       <c r="B61" s="28">
         <v>43215</v>
       </c>
@@ -6653,7 +6698,7 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="117">
+      <c r="A63" s="119">
         <v>19</v>
       </c>
       <c r="B63" s="28">
@@ -6700,7 +6745,7 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="119"/>
+      <c r="A64" s="120"/>
       <c r="B64" s="28">
         <v>43229</v>
       </c>
@@ -6745,7 +6790,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="117">
+      <c r="A65" s="119">
         <v>20</v>
       </c>
       <c r="B65" s="28">
@@ -6792,7 +6837,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="118"/>
+      <c r="A66" s="121"/>
       <c r="B66" s="28">
         <v>43235</v>
       </c>
@@ -6837,7 +6882,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="118"/>
+      <c r="A67" s="121"/>
       <c r="B67" s="28">
         <v>43235</v>
       </c>
@@ -6882,7 +6927,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="118"/>
+      <c r="A68" s="121"/>
       <c r="B68" s="28">
         <v>43235</v>
       </c>
@@ -6930,7 +6975,7 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="119"/>
+      <c r="A69" s="120"/>
       <c r="B69" s="28">
         <v>43235</v>
       </c>
@@ -6978,7 +7023,7 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="117">
+      <c r="A70" s="119">
         <v>21</v>
       </c>
       <c r="B70" s="28">
@@ -6994,13 +7039,13 @@
         <v>46</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G70" s="1">
         <v>76157998</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I70" s="21" t="s">
         <v>32</v>
@@ -7012,10 +7057,10 @@
         <v>17602558329</v>
       </c>
       <c r="L70" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M70" s="21" t="s">
         <v>272</v>
-      </c>
-      <c r="M70" s="21" t="s">
-        <v>274</v>
       </c>
       <c r="N70" s="30">
         <v>13771053111</v>
@@ -7025,7 +7070,7 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="118"/>
+      <c r="A71" s="121"/>
       <c r="B71" s="28">
         <v>43243</v>
       </c>
@@ -7039,13 +7084,13 @@
         <v>46</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G71" s="1">
         <v>76161201</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I71" s="21" t="s">
         <v>32</v>
@@ -7057,10 +7102,10 @@
         <v>17602558329</v>
       </c>
       <c r="L71" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M71" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N71" s="30">
         <v>18841447393</v>
@@ -7070,7 +7115,7 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="119"/>
+      <c r="A72" s="120"/>
       <c r="B72" s="28">
         <v>43243</v>
       </c>
@@ -7084,13 +7129,13 @@
         <v>102</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G72" s="1">
         <v>76152939</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I72" s="21" t="s">
         <v>32</v>
@@ -7118,7 +7163,7 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="117">
+      <c r="A73" s="119">
         <v>22</v>
       </c>
       <c r="B73" s="28">
@@ -7134,13 +7179,13 @@
         <v>102</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G73" s="1">
         <v>76133012</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I73" s="21" t="s">
         <v>32</v>
@@ -7168,7 +7213,7 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="119"/>
+      <c r="A74" s="120"/>
       <c r="B74" s="28">
         <v>43250</v>
       </c>
@@ -7182,13 +7227,13 @@
         <v>102</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G74" s="1">
         <v>76157131</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="I74" s="21" t="s">
         <v>32</v>
@@ -7216,7 +7261,7 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="117">
+      <c r="A75" s="119">
         <v>23</v>
       </c>
       <c r="B75" s="28">
@@ -7232,13 +7277,13 @@
         <v>46</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G75" s="1">
         <v>76172757</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I75" s="21" t="s">
         <v>32</v>
@@ -7250,10 +7295,10 @@
         <v>17602558329</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M75" s="36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N75" s="30">
         <v>18962302886</v>
@@ -7263,7 +7308,7 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="118"/>
+      <c r="A76" s="121"/>
       <c r="B76" s="28">
         <v>43257</v>
       </c>
@@ -7277,13 +7322,13 @@
         <v>46</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G76" s="1">
         <v>76172137</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I76" s="21" t="s">
         <v>32</v>
@@ -7295,10 +7340,10 @@
         <v>17602558329</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M76" s="21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N76" s="30">
         <v>13585401224</v>
@@ -7308,7 +7353,7 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="118"/>
+      <c r="A77" s="121"/>
       <c r="B77" s="28">
         <v>43257</v>
       </c>
@@ -7322,13 +7367,13 @@
         <v>102</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G77" s="21">
         <v>76157571</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I77" s="21" t="s">
         <v>32</v>
@@ -7356,7 +7401,7 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="119"/>
+      <c r="A78" s="120"/>
       <c r="B78" s="28">
         <v>43257</v>
       </c>
@@ -7370,13 +7415,13 @@
         <v>102</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G78" s="21">
         <v>76176032</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I78" s="21" t="s">
         <v>32</v>
@@ -7404,38 +7449,96 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+      <c r="A79" s="119">
+        <v>24</v>
+      </c>
+      <c r="B79" s="28">
+        <v>43264</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G79" s="1">
+        <v>76169163</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="I79" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="M79" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="N79" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
+      <c r="A80" s="120"/>
+      <c r="B80" s="28">
+        <v>43264</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="G80" s="1">
+        <v>76170955</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="I80" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="M80" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="N80" s="30">
+        <v>17327996435</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1"/>
@@ -11229,8 +11332,11 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A75:A78"/>
+  <mergeCells count="19">
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -11240,14 +11346,12 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A70:A72"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A54:A57"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
@@ -11265,7 +11369,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -11316,7 +11420,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>43</v>
@@ -11375,17 +11479,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="117">
+      <c r="A5" s="91">
         <v>20</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>277</v>
+      <c r="B5" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="C5" s="37">
         <v>43234</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>187</v>
@@ -11394,19 +11498,21 @@
         <v>188</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="118"/>
+      <c r="A6" s="125">
+        <v>22</v>
+      </c>
       <c r="B6" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C6" s="37">
-        <v>43234</v>
+        <v>43248</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>187</v>
@@ -11415,19 +11521,19 @@
         <v>188</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="119"/>
-      <c r="B7" s="25" t="s">
-        <v>261</v>
+      <c r="A7" s="125"/>
+      <c r="B7" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="C7" s="37">
-        <v>43236</v>
+        <v>43248</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>187</v>
@@ -11436,21 +11542,21 @@
         <v>188</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="123">
-        <v>22</v>
+      <c r="A8" s="125">
+        <v>23</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C8" s="37">
-        <v>43248</v>
+        <v>43257</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>187</v>
@@ -11459,19 +11565,19 @@
         <v>188</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="123"/>
-      <c r="B9" s="9" t="s">
-        <v>290</v>
+      <c r="A9" s="125"/>
+      <c r="B9" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="C9" s="37">
-        <v>43248</v>
+        <v>43257</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>187</v>
@@ -11480,7 +11586,7 @@
         <v>188</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -11494,8 +11600,8 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="89"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -11503,8 +11609,8 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="89"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -11547,70 +11653,70 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="89"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="89"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="119"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25">
+      <c r="A19" s="121"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="117"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="118"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="9"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="118"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="121"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="118"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="121"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="15"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="118"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -11619,7 +11725,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="118"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -11628,7 +11734,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="118"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -11637,7 +11743,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="118"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -11646,7 +11752,7 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="118"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -11655,7 +11761,7 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="118"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -11663,62 +11769,62 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="118"/>
+    <row r="30" spans="1:7" ht="14.25">
+      <c r="A30" s="119"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="119"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25">
+      <c r="A31" s="121"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="117"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="12"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="9"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="118"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="9"/>
       <c r="C33" s="14"/>
       <c r="D33" s="12"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25">
-      <c r="A34" s="118"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="121"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="118"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="121"/>
       <c r="B35" s="9"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="15"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="118"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -11727,7 +11833,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="118"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -11736,7 +11842,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="118"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -11745,7 +11851,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="118"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -11754,7 +11860,7 @@
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="118"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -11763,7 +11869,7 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="118"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -11771,44 +11877,44 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="118"/>
+    <row r="42" spans="1:7" ht="14.25">
+      <c r="A42" s="121"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="119"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25">
+      <c r="A43" s="121"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="118"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="121"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="12"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25">
-      <c r="A45" s="118"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="121"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="12"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="15"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="118"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -11817,7 +11923,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="118"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -11826,7 +11932,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="118"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -11835,7 +11941,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="118"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -11844,7 +11950,7 @@
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="118"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
@@ -11853,7 +11959,7 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="118"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
@@ -11861,30 +11967,12 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="118"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="119"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -11904,10 +11992,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11938,7 +12026,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="124">
+      <c r="A2" s="126">
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -11956,7 +12044,7 @@
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="119"/>
+      <c r="A3" s="120"/>
       <c r="B3" s="25" t="s">
         <v>232</v>
       </c>
@@ -11974,7 +12062,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="117">
+      <c r="A4" s="119">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -11990,11 +12078,11 @@
         <v>259</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="119"/>
+      <c r="A5" s="120"/>
       <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
@@ -12008,7 +12096,7 @@
         <v>259</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12040,14 +12128,14 @@
         <v>43190</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="117">
+      <c r="A8" s="119">
         <v>4</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -12057,14 +12145,14 @@
         <v>43191</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="118"/>
+      <c r="A9" s="121"/>
       <c r="B9" s="45" t="s">
         <v>35</v>
       </c>
@@ -12079,7 +12167,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="119"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="49" t="s">
         <v>35</v>
       </c>
@@ -12105,17 +12193,50 @@
         <v>43240</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="119">
+        <v>6</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="35">
+        <v>43260</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="120"/>
+      <c r="B13" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="35">
+        <v>43261</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周数据/《实施上线数据统计表》-黄纯伟.xlsx
+++ b/周数据/《实施上线数据统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
   <si>
     <t xml:space="preserve">说明：
 1、立项数、上线数以及上线日期均以邮件为准；
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>第24周</t>
+  </si>
+  <si>
+    <t>第25周</t>
   </si>
   <si>
     <t>周次</t>
@@ -646,6 +649,21 @@
     <t>鸭得堡（瞻园路店）</t>
   </si>
   <si>
+    <t>三千粉杭州新天地店</t>
+  </si>
+  <si>
+    <t>沽涷江阴青阳店</t>
+  </si>
+  <si>
+    <t>孙佳</t>
+  </si>
+  <si>
+    <t>饺翻天南通圆融广场店</t>
+  </si>
+  <si>
+    <t>饺翻天南通印象城店</t>
+  </si>
+  <si>
     <t>立项日期</t>
   </si>
   <si>
@@ -661,7 +679,7 @@
     <t>销售人员</t>
   </si>
   <si>
-    <t>店铺签约100家，目前还有39家未开户，16家未上线，45家已上线</t>
+    <t>店铺签约100家，目前还有39家未开户，13家未上线，48家已上线</t>
   </si>
   <si>
     <t>连锁</t>
@@ -706,9 +724,6 @@
     <t>怒烤烤串（常州湖塘店）</t>
   </si>
   <si>
-    <t>沽涷江阴青阳店</t>
-  </si>
-  <si>
     <t>沽涷成都农大店</t>
   </si>
   <si>
@@ -776,6 +791,9 @@
   </si>
   <si>
     <t>楼兰餐厅南京鼓楼虹桥店驻店</t>
+  </si>
+  <si>
+    <t>端午节值班</t>
   </si>
 </sst>
 </file>
@@ -784,10 +802,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -918,28 +936,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -947,61 +943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,16 +964,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,6 +994,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1054,8 +1025,55 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1142,13 +1160,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,19 +1202,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,7 +1256,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,79 +1298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,13 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,25 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,11 +1895,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1897,30 +1928,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1943,23 +1950,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1972,6 +1964,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1980,10 +1998,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1992,133 +2010,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3281,25 +3299,33 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="101"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="B17" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="102">
+        <v>1</v>
+      </c>
+      <c r="D17" s="84">
+        <v>0</v>
+      </c>
+      <c r="E17" s="85">
+        <v>1</v>
+      </c>
       <c r="F17" s="86">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="87">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H17" s="88" t="e">
+      <c r="H17" s="88">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="I17" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3974,49 +4000,49 @@
   <sheetData>
     <row r="1" s="31" customFormat="1" ht="28.5" spans="1:15">
       <c r="A1" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4027,43 +4053,43 @@
         <v>43085</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2">
         <v>76115600</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2">
         <v>17602558329</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2">
         <v>15951931503</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4072,43 +4098,43 @@
         <v>43085</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>76116311</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2">
         <v>17602558329</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2">
         <v>13855003266</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4119,43 +4145,43 @@
         <v>43097</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>76119685</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2">
         <v>17602558329</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" s="46">
         <v>18601585219</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4166,43 +4192,43 @@
         <v>43103</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
         <v>76119689</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2">
         <v>17602558329</v>
       </c>
       <c r="L5" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M5" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" s="46">
         <v>18601585219</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4211,43 +4237,43 @@
         <v>43103</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>76115775</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2">
         <v>17602558329</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6" s="46">
         <v>18601585219</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4258,43 +4284,43 @@
         <v>43109</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2">
         <v>76120305</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2">
         <v>17602558329</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" s="2">
         <v>13921387360</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4303,43 +4329,43 @@
         <v>43109</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>76117397</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2">
         <v>17602558329</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N8" s="2">
         <v>13567912454</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4350,43 +4376,43 @@
         <v>43116</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2">
         <v>76110597</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2">
         <v>17602558329</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N9" s="39">
         <v>15651888368</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -4395,43 +4421,43 @@
         <v>43116</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>76117399</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2">
         <v>17602558329</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N10" s="39">
         <v>13780054964</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -4442,43 +4468,43 @@
         <v>43122</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2">
         <v>76121691</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2">
         <v>17602558329</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N11" s="48">
         <v>18852665200</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4489,43 +4515,43 @@
         <v>43130</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2">
         <v>76121956</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2">
         <v>17602558329</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" s="2">
         <v>13921280802</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -4534,43 +4560,43 @@
         <v>43130</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2">
         <v>76121671</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2">
         <v>17602558329</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N13" s="48">
         <v>13605150024</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4579,43 +4605,43 @@
         <v>43131</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2">
         <v>76125223</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="2">
         <v>17602558329</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N14" s="2">
         <v>18112604296</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -4626,43 +4652,43 @@
         <v>43138</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" s="2">
         <v>76128577</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2">
         <v>17602558329</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N15" s="2">
         <v>18112604296</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -4671,43 +4697,43 @@
         <v>43138</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="2">
         <v>76128579</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2">
         <v>17602558329</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N16" s="2">
         <v>18112604296</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -4716,7 +4742,7 @@
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -4738,43 +4764,43 @@
         <v>43154</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G18" s="2">
         <v>76127217</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2">
         <v>17602558329</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N18" s="2">
         <v>18112604296</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4783,43 +4809,43 @@
         <v>43154</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2">
         <v>76128571</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2">
         <v>17602558329</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N19" s="2">
         <v>18112604296</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4828,43 +4854,43 @@
         <v>43154</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="38">
         <v>76128575</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2">
         <v>17602558329</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N20" s="2">
         <v>18112604296</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -4873,43 +4899,43 @@
         <v>43154</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2">
         <v>76128576</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" s="2">
         <v>17602558329</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N21" s="2">
         <v>18112604296</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -4918,43 +4944,43 @@
         <v>43154</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2">
         <v>76129762</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" s="2">
         <v>17602558329</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N22" s="2">
         <v>18112604296</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -4963,43 +4989,43 @@
         <v>43154</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="2">
         <v>76127976</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="2">
         <v>17602558329</v>
       </c>
       <c r="L23" s="40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N23" s="2">
         <v>15951677180</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -5010,43 +5036,43 @@
         <v>43159</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2">
         <v>76122091</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" s="2">
         <v>17602558329</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N24" s="2">
         <v>13921280802</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -5055,43 +5081,43 @@
         <v>43159</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2">
         <v>76122096</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" s="2">
         <v>17602558329</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N25" s="2">
         <v>13921280802</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -5100,43 +5126,43 @@
         <v>43159</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G26" s="2">
         <v>76123036</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" s="2">
         <v>17602558329</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N26" s="39">
         <v>13709060302</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -5145,43 +5171,43 @@
         <v>43159</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
         <v>76128273</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" s="2">
         <v>17602558329</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N27" s="39">
         <v>13812586805</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -5190,43 +5216,43 @@
         <v>43159</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2">
         <v>76132337</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2">
         <v>17602558329</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N28" s="2">
         <v>13338730911</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -5237,43 +5263,43 @@
         <v>43165</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G29" s="2">
         <v>76121106</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" s="2">
         <v>17602558329</v>
       </c>
       <c r="L29" s="40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N29" s="39">
         <v>13951396931</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -5284,43 +5310,43 @@
         <v>43171</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G30" s="2">
         <v>76130116</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30" s="2">
         <v>17602558329</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N30" s="39">
         <v>13222071793</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -5331,43 +5357,43 @@
         <v>43180</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G31" s="39">
         <v>76131267</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2">
         <v>17602558329</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N31" s="2">
         <v>18112604296</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -5376,43 +5402,43 @@
         <v>43180</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G32" s="39">
         <v>76131269</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" s="2">
         <v>17602558329</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N32" s="2">
         <v>18112604296</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -5421,43 +5447,43 @@
         <v>43180</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G33" s="39">
         <v>76131270</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" s="2">
         <v>17602558329</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N33" s="2">
         <v>18112604296</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -5466,43 +5492,43 @@
         <v>43180</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" s="39">
         <v>76131271</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" s="2">
         <v>17602558329</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N34" s="2">
         <v>18112604296</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -5511,43 +5537,43 @@
         <v>43180</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G35" s="2">
         <v>76131272</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" s="2">
         <v>17602558329</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N35" s="2">
         <v>18112604296</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -5556,43 +5582,43 @@
         <v>43180</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G36" s="2">
         <v>76133009</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" s="2">
         <v>17602558329</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N36" s="2">
         <v>18112604296</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -5601,43 +5627,43 @@
         <v>43180</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" s="2">
         <v>76133013</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37" s="2">
         <v>17602558329</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N37" s="2">
         <v>18112604296</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -5648,43 +5674,43 @@
         <v>43187</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G38" s="39">
         <v>76132026</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" s="2">
         <v>17602558329</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N38" s="2">
         <v>18020275119</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -5693,43 +5719,43 @@
         <v>43187</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" s="39">
         <v>76132028</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" s="2">
         <v>17602558329</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N39" s="2">
         <v>18020275119</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -5738,43 +5764,43 @@
         <v>43187</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G40" s="39">
         <v>76132029</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" s="2">
         <v>17602558329</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N40" s="2">
         <v>18020275119</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -5783,43 +5809,43 @@
         <v>43187</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" s="39">
         <v>76132057</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" s="2">
         <v>17602558329</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N41" s="2">
         <v>18020275119</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -5828,43 +5854,43 @@
         <v>43187</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G42" s="39">
         <v>76132060</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" s="2">
         <v>17602558329</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N42" s="2">
         <v>18020275119</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -5873,43 +5899,43 @@
         <v>43187</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G43" s="39">
         <v>76132061</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" s="2">
         <v>17602558329</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N43" s="2">
         <v>18020275119</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -5918,43 +5944,43 @@
         <v>43187</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G44" s="39">
         <v>76132063</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" s="2">
         <v>17602558329</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N44" s="2">
         <v>18020275119</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -5963,43 +5989,43 @@
         <v>43187</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G45" s="39">
         <v>76132065</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" s="2">
         <v>17602558329</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N45" s="2">
         <v>18020275119</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -6008,43 +6034,43 @@
         <v>43187</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G46" s="39">
         <v>76132289</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46" s="2">
         <v>17602558329</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N46" s="2">
         <v>18020275119</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -6053,43 +6079,43 @@
         <v>43187</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G47" s="39">
         <v>76132952</v>
       </c>
       <c r="H47" s="41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47" s="2">
         <v>17602558329</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N47" s="2">
         <v>18020275119</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -6098,43 +6124,43 @@
         <v>43187</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G48" s="39">
         <v>76132962</v>
       </c>
       <c r="H48" s="41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" s="2">
         <v>17602558329</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N48" s="2">
         <v>18020275119</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -6143,43 +6169,43 @@
         <v>43187</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G49" s="39">
         <v>76132980</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49" s="2">
         <v>17602558329</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N49" s="2">
         <v>18020275119</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -6190,43 +6216,43 @@
         <v>43194</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G50" s="39">
         <v>76128879</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50" s="2">
         <v>17602558329</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N50" s="39">
         <v>13913957701</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -6235,43 +6261,43 @@
         <v>43194</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G51" s="39">
         <v>76128880</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51" s="2">
         <v>17602558329</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N51" s="39">
         <v>18806742898</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -6280,43 +6306,43 @@
         <v>43194</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" s="2">
         <v>76133752</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" s="2">
         <v>17602558329</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N52" s="2">
         <v>18020275119</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -6325,43 +6351,43 @@
         <v>43194</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G53" s="2">
         <v>76153237</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" s="2">
         <v>17602558329</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N53" s="2">
         <v>18020275119</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -6372,43 +6398,43 @@
         <v>43201</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G54" s="2">
         <v>76132983</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" s="2">
         <v>17602558329</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N54" s="2">
         <v>18020275119</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -6417,43 +6443,43 @@
         <v>43201</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G55" s="2">
         <v>76132985</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55" s="2">
         <v>17602558329</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N55" s="2">
         <v>18020275119</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -6462,43 +6488,43 @@
         <v>43201</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G56" s="2">
         <v>76132987</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" s="2">
         <v>17602558329</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N56" s="2">
         <v>18020275119</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -6507,43 +6533,43 @@
         <v>43201</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G57" s="2">
         <v>76138839</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57" s="2">
         <v>17602558329</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N57" s="2">
         <v>18020275119</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -6554,43 +6580,43 @@
         <v>43208</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G58" s="2">
         <v>76159127</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58" s="2">
         <v>17602558329</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N58" s="2">
         <v>18750225127</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -6601,43 +6627,43 @@
         <v>43215</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G59" s="2">
         <v>76155318</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59" s="2">
         <v>17602558329</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N59" s="39">
         <v>17327996435</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6646,46 +6672,46 @@
         <v>43215</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G60" s="2">
         <v>76156911</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60" s="2">
         <v>17602558329</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N60" s="2">
         <v>18020275119</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P60" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6694,46 +6720,46 @@
         <v>43215</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G61" s="2">
         <v>76157133</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61" s="2">
         <v>17602558329</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N61" s="2">
         <v>18020275119</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P61" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -6744,43 +6770,43 @@
         <v>43220</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G62" s="2">
         <v>76163685</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62" s="2">
         <v>17602558329</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N62" s="2">
         <v>15380862222</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -6791,43 +6817,43 @@
         <v>43229</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G63" s="2">
         <v>76161175</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K63" s="2">
         <v>17602558329</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N63" s="2">
         <v>13813957852</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -6836,43 +6862,43 @@
         <v>43229</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G64" s="2">
         <v>76161228</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64" s="2">
         <v>17602558329</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N64" s="2">
         <v>18661144557</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -6883,43 +6909,43 @@
         <v>43235</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G65" s="2">
         <v>76167901</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65" s="2">
         <v>17602558329</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N65" s="2">
         <v>15062290605</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -6928,43 +6954,43 @@
         <v>43235</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G66" s="2">
         <v>76157973</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66" s="2">
         <v>17602558329</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N66" s="2">
         <v>13222071793</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -6973,43 +6999,43 @@
         <v>43235</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G67" s="2">
         <v>76161735</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K67" s="2">
         <v>17602558329</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N67" s="2">
         <v>13222071793</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -7018,46 +7044,46 @@
         <v>43235</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G68" s="2">
         <v>76133002</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68" s="2">
         <v>17602558329</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N68" s="2">
         <v>18020275119</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P68" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -7066,46 +7092,46 @@
         <v>43235</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G69" s="2">
         <v>76152937</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69" s="2">
         <v>17602558329</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N69" s="2">
         <v>18020275119</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P69" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -7116,43 +7142,43 @@
         <v>43243</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G70" s="2">
         <v>76157998</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70" s="2">
         <v>17602558329</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N70" s="39">
         <v>13771053111</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -7161,43 +7187,43 @@
         <v>43243</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G71" s="2">
         <v>76161201</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71" s="2">
         <v>17602558329</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N71" s="39">
         <v>18841447393</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -7206,46 +7232,46 @@
         <v>43243</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G72" s="2">
         <v>76152939</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K72" s="2">
         <v>17602558329</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N72" s="2">
         <v>18020275119</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P72" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -7256,46 +7282,46 @@
         <v>43250</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G73" s="2">
         <v>76133012</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73" s="2">
         <v>17602558329</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N73" s="2">
         <v>18020275119</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P73" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -7304,46 +7330,46 @@
         <v>43250</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G74" s="2">
         <v>76157131</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74" s="2">
         <v>17602558329</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N74" s="2">
         <v>18020275119</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P74" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -7354,43 +7380,43 @@
         <v>43257</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G75" s="2">
         <v>76172757</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75" s="2">
         <v>17602558329</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M75" s="49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N75" s="39">
         <v>18962302886</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -7399,43 +7425,43 @@
         <v>43257</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G76" s="2">
         <v>76172137</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76" s="2">
         <v>17602558329</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N76" s="39">
         <v>13585401224</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -7444,46 +7470,46 @@
         <v>43257</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G77" s="22">
         <v>76157571</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77" s="2">
         <v>17602558329</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N77" s="2">
         <v>18020275119</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P77" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -7492,46 +7518,46 @@
         <v>43257</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G78" s="22">
         <v>76176032</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78" s="2">
         <v>17602558329</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M78" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N78" s="2">
         <v>18020275119</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P78" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -7542,43 +7568,43 @@
         <v>43264</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G79" s="2">
         <v>76169163</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79" s="2">
         <v>17602558329</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M79" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N79" s="39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -7587,112 +7613,235 @@
         <v>43264</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G80" s="2">
         <v>76170955</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80" s="2">
         <v>17602558329</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M80" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N80" s="39">
         <v>17327996435</v>
       </c>
       <c r="O80" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="14">
+        <v>25</v>
+      </c>
+      <c r="B81" s="36">
+        <v>43271</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="2">
+        <v>76181189</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" s="2">
+        <v>17602558329</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M81" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N81" s="2">
+        <v>18020275119</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P81" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="15"/>
+      <c r="B82" s="36">
+        <v>43271</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G82" s="2">
+        <v>76176538</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K82" s="2">
+        <v>17602558329</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M82" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="N82" s="2">
+        <v>18601580327</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="15"/>
+      <c r="B83" s="36">
+        <v>43271</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G83" s="2">
+        <v>76179053</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J83" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K83" s="2">
+        <v>17602558329</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M83" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N83" s="2">
+        <v>18020275119</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P83" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="13"/>
+      <c r="B84" s="36">
+        <v>43271</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G84" s="2">
+        <v>76171122</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J84" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" s="2">
+        <v>17602558329</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="M84" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N84" s="2">
+        <v>18020275119</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P84" s="50" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2"/>
@@ -11418,7 +11567,7 @@
       <c r="O303" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -11438,6 +11587,7 @@
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A78"/>
     <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A84"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
@@ -11456,7 +11606,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -11478,22 +11628,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:7">
@@ -11501,22 +11651,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="20">
         <v>43123</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -11524,22 +11674,22 @@
         <v>19</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3" s="20">
         <v>43227</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:7">
@@ -11547,22 +11697,22 @@
         <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C4" s="20">
         <v>43229</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -11570,116 +11720,104 @@
         <v>20</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C5" s="20">
         <v>43234</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="14">
         <v>22</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C6" s="20">
         <v>43248</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G6" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>23</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="20">
+        <v>43257</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="20">
-        <v>43248</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>23</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>222</v>
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="C8" s="20">
         <v>43257</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="20">
-        <v>43257</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>219</v>
-      </c>
+      <c r="A9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="25"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11731,31 +11869,31 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="24"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="25"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
+    <row r="17" ht="14.25" spans="1:7">
+      <c r="A17" s="14"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" ht="14.25" spans="1:7">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="28"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="15"/>
@@ -11773,16 +11911,16 @@
       <c r="D20" s="28"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:7">
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="15"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="15"/>
@@ -11839,7 +11977,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="15"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="25"/>
@@ -11847,23 +11985,23 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="13"/>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="14"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" ht="14.25" spans="1:7">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="27"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="28"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" ht="14.25" spans="1:7">
       <c r="A31" s="15"/>
@@ -11881,16 +12019,16 @@
       <c r="D32" s="28"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:7">
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="15"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="30"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="15"/>
@@ -11947,7 +12085,7 @@
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="15"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="25"/>
@@ -11955,14 +12093,14 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="13"/>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="15"/>
       <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="25"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" ht="14.25" spans="1:7">
       <c r="A42" s="15"/>
@@ -11971,16 +12109,16 @@
       <c r="D42" s="28"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:7">
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="15"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="30"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="15"/>
@@ -12037,7 +12175,7 @@
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="15"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="25"/>
@@ -12045,22 +12183,12 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="13"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="A42:A51"/>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A41:A50"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1"/>
@@ -12080,7 +12208,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -12101,16 +12229,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12118,35 +12246,35 @@
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10">
         <v>43079</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13"/>
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10">
         <v>43099</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -12154,37 +12282,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10">
         <v>43127</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10">
         <v>43128</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12192,16 +12320,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="10">
         <v>43144</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -12210,16 +12338,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="10">
         <v>43190</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12227,46 +12355,46 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="10">
         <v>43191</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10">
         <v>43197</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="10">
         <v>43219</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -12275,16 +12403,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="10">
         <v>43240</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12292,31 +12420,46 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="10">
         <v>43260</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10">
         <v>43261</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43269</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -12324,7 +12467,7 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>

--- a/周数据/《实施上线数据统计表》-黄纯伟.xlsx
+++ b/周数据/《实施上线数据统计表》-黄纯伟.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="340">
   <si>
     <t>月份</t>
   </si>
@@ -1094,9 +1094,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>怒烤烤串（宿迁金鹰店）</t>
-  </si>
-  <si>
     <t>沈芳芳</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1284,10 +1281,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>店铺签约100家，目前还有39家未开户，13家未上线，48家已上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>苏州楼兰餐饮管理有限公司</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1309,6 +1302,45 @@
   </si>
   <si>
     <t>负责人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>御笛阁培训和驻店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘小姐的店售后</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>第26周</t>
+  </si>
+  <si>
+    <t>怒烤烤串（宿迁金鹰店）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡总</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天南通永旺店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺翻天南通中南城店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺签约100家，目前还有39家未开户，11家未上线，50家已上线</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2113,7 +2145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2408,24 +2440,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2828,72 +2863,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="105"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="112" t="s">
+      <c r="D3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113" t="s">
+      <c r="E3" s="113"/>
+      <c r="F3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="118" t="s">
         <v>234</v>
       </c>
-      <c r="I3" s="119" t="s">
+      <c r="I3" s="120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="53" t="s">
         <v>235</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="120"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="86" t="s">
@@ -3051,7 +3086,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="97" t="s">
         <v>241</v>
       </c>
       <c r="B10" s="79" t="s">
@@ -3179,7 +3214,7 @@
     <row r="14" spans="1:9" ht="14.25" thickBot="1">
       <c r="A14" s="96"/>
       <c r="B14" s="79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="82">
         <v>0</v>
@@ -3208,11 +3243,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="79" t="s">
         <v>287</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>288</v>
       </c>
       <c r="C15" s="80">
         <v>2</v>
@@ -3243,7 +3278,7 @@
     <row r="16" spans="1:9">
       <c r="A16" s="95"/>
       <c r="B16" s="79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="82">
         <v>1</v>
@@ -3274,7 +3309,7 @@
     <row r="17" spans="1:9">
       <c r="A17" s="95"/>
       <c r="B17" s="79" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C17" s="82">
         <v>1</v>
@@ -3304,25 +3339,33 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="95"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="79" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="82">
+        <v>2</v>
+      </c>
+      <c r="D18" s="65">
+        <v>0</v>
+      </c>
+      <c r="E18" s="66">
+        <v>1</v>
+      </c>
       <c r="F18" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="68">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="69" t="e">
+        <v>1</v>
+      </c>
+      <c r="H18" s="69">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="70" t="e">
+        <v>1</v>
+      </c>
+      <c r="I18" s="70">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3925,11 +3968,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A38"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -3941,6 +3979,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4019,7 +4062,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="121">
+      <c r="A2" s="122">
         <v>51</v>
       </c>
       <c r="B2" s="27">
@@ -4066,7 +4109,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="123"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="27">
         <v>43085</v>
       </c>
@@ -4158,7 +4201,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="121">
+      <c r="A5" s="122">
         <v>1</v>
       </c>
       <c r="B5" s="28">
@@ -4205,7 +4248,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="123"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="28">
         <v>43103</v>
       </c>
@@ -4250,7 +4293,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="121">
+      <c r="A7" s="122">
         <v>2</v>
       </c>
       <c r="B7" s="28">
@@ -4297,7 +4340,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="123"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="28">
         <v>43109</v>
       </c>
@@ -4342,7 +4385,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="121">
+      <c r="A9" s="122">
         <v>3</v>
       </c>
       <c r="B9" s="28">
@@ -4389,7 +4432,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="123"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="28">
         <v>43116</v>
       </c>
@@ -4481,7 +4524,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="121">
+      <c r="A12" s="122">
         <v>5</v>
       </c>
       <c r="B12" s="28">
@@ -4528,7 +4571,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="28">
         <v>43130</v>
       </c>
@@ -4573,7 +4616,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="123"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="28">
         <v>43131</v>
       </c>
@@ -4618,7 +4661,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="121">
+      <c r="A15" s="122">
         <v>6</v>
       </c>
       <c r="B15" s="28">
@@ -4665,7 +4708,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="123"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="28">
         <v>43138</v>
       </c>
@@ -4730,7 +4773,7 @@
       <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="121">
+      <c r="A18" s="122">
         <v>8</v>
       </c>
       <c r="B18" s="28">
@@ -4777,7 +4820,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="28">
         <v>43154</v>
       </c>
@@ -4822,7 +4865,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="122"/>
+      <c r="A20" s="123"/>
       <c r="B20" s="28">
         <v>43154</v>
       </c>
@@ -4867,7 +4910,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="122"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="28">
         <v>43154</v>
       </c>
@@ -4912,7 +4955,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="122"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="28">
         <v>43154</v>
       </c>
@@ -4957,7 +5000,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="123"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="28">
         <v>43154</v>
       </c>
@@ -5002,7 +5045,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="121">
+      <c r="A24" s="122">
         <v>9</v>
       </c>
       <c r="B24" s="28">
@@ -5049,7 +5092,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="122"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="28">
         <v>43159</v>
       </c>
@@ -5094,7 +5137,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="122"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="28">
         <v>43159</v>
       </c>
@@ -5139,7 +5182,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="122"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="28">
         <v>43159</v>
       </c>
@@ -5184,7 +5227,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="123"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="28">
         <v>43159</v>
       </c>
@@ -5251,7 +5294,7 @@
         <v>76121106</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>32</v>
@@ -5323,7 +5366,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="121">
+      <c r="A31" s="122">
         <v>12</v>
       </c>
       <c r="B31" s="28">
@@ -5370,7 +5413,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="122"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="28">
         <v>43180</v>
       </c>
@@ -5415,7 +5458,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="122"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="28">
         <v>43180</v>
       </c>
@@ -5460,7 +5503,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="122"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="28">
         <v>43180</v>
       </c>
@@ -5505,7 +5548,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="122"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="28">
         <v>43180</v>
       </c>
@@ -5550,7 +5593,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="122"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="28">
         <v>43180</v>
       </c>
@@ -5595,7 +5638,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="123"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="28">
         <v>43180</v>
       </c>
@@ -5640,7 +5683,7 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="121">
+      <c r="A38" s="122">
         <v>13</v>
       </c>
       <c r="B38" s="28">
@@ -5687,7 +5730,7 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="122"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="28">
         <v>43187</v>
       </c>
@@ -5732,7 +5775,7 @@
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="122"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="28">
         <v>43187</v>
       </c>
@@ -5777,7 +5820,7 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="122"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="28">
         <v>43187</v>
       </c>
@@ -5822,7 +5865,7 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="122"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="28">
         <v>43187</v>
       </c>
@@ -5867,7 +5910,7 @@
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="122"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="28">
         <v>43187</v>
       </c>
@@ -5912,7 +5955,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="122"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="28">
         <v>43187</v>
       </c>
@@ -5957,7 +6000,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="122"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="28">
         <v>43187</v>
       </c>
@@ -6002,7 +6045,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="122"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="28">
         <v>43187</v>
       </c>
@@ -6047,7 +6090,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="122"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="28">
         <v>43187</v>
       </c>
@@ -6092,7 +6135,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="122"/>
+      <c r="A48" s="123"/>
       <c r="B48" s="28">
         <v>43187</v>
       </c>
@@ -6137,7 +6180,7 @@
       </c>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="123"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="28">
         <v>43187</v>
       </c>
@@ -6182,7 +6225,7 @@
       </c>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="124">
+      <c r="A50" s="125">
         <v>14</v>
       </c>
       <c r="B50" s="28">
@@ -6229,7 +6272,7 @@
       </c>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="125"/>
+      <c r="A51" s="126"/>
       <c r="B51" s="28">
         <v>43194</v>
       </c>
@@ -6274,7 +6317,7 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="125"/>
+      <c r="A52" s="126"/>
       <c r="B52" s="28">
         <v>43194</v>
       </c>
@@ -6319,7 +6362,7 @@
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="126"/>
+      <c r="A53" s="127"/>
       <c r="B53" s="28">
         <v>43194</v>
       </c>
@@ -6364,7 +6407,7 @@
       </c>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="121">
+      <c r="A54" s="122">
         <v>15</v>
       </c>
       <c r="B54" s="28">
@@ -6411,7 +6454,7 @@
       </c>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="122"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="28">
         <v>43201</v>
       </c>
@@ -6456,7 +6499,7 @@
       </c>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="122"/>
+      <c r="A56" s="123"/>
       <c r="B56" s="28">
         <v>43201</v>
       </c>
@@ -6501,7 +6544,7 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="123"/>
+      <c r="A57" s="124"/>
       <c r="B57" s="28">
         <v>43201</v>
       </c>
@@ -6593,7 +6636,7 @@
       </c>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="121">
+      <c r="A59" s="122">
         <v>17</v>
       </c>
       <c r="B59" s="28">
@@ -6640,7 +6683,7 @@
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="122"/>
+      <c r="A60" s="123"/>
       <c r="B60" s="28">
         <v>43215</v>
       </c>
@@ -6688,7 +6731,7 @@
       </c>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="123"/>
+      <c r="A61" s="124"/>
       <c r="B61" s="28">
         <v>43215</v>
       </c>
@@ -6783,7 +6826,7 @@
       </c>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="121">
+      <c r="A63" s="122">
         <v>19</v>
       </c>
       <c r="B63" s="28">
@@ -6830,7 +6873,7 @@
       </c>
     </row>
     <row r="64" spans="1:16">
-      <c r="A64" s="123"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="28">
         <v>43229</v>
       </c>
@@ -6875,7 +6918,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="121">
+      <c r="A65" s="122">
         <v>20</v>
       </c>
       <c r="B65" s="28">
@@ -6922,7 +6965,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="122"/>
+      <c r="A66" s="123"/>
       <c r="B66" s="28">
         <v>43235</v>
       </c>
@@ -6967,7 +7010,7 @@
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="122"/>
+      <c r="A67" s="123"/>
       <c r="B67" s="28">
         <v>43235</v>
       </c>
@@ -7012,7 +7055,7 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="122"/>
+      <c r="A68" s="123"/>
       <c r="B68" s="28">
         <v>43235</v>
       </c>
@@ -7060,7 +7103,7 @@
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="123"/>
+      <c r="A69" s="124"/>
       <c r="B69" s="28">
         <v>43235</v>
       </c>
@@ -7108,7 +7151,7 @@
       </c>
     </row>
     <row r="70" spans="1:16">
-      <c r="A70" s="121">
+      <c r="A70" s="122">
         <v>21</v>
       </c>
       <c r="B70" s="28">
@@ -7155,7 +7198,7 @@
       </c>
     </row>
     <row r="71" spans="1:16">
-      <c r="A71" s="122"/>
+      <c r="A71" s="123"/>
       <c r="B71" s="28">
         <v>43243</v>
       </c>
@@ -7200,7 +7243,7 @@
       </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="123"/>
+      <c r="A72" s="124"/>
       <c r="B72" s="28">
         <v>43243</v>
       </c>
@@ -7248,7 +7291,7 @@
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="121">
+      <c r="A73" s="122">
         <v>22</v>
       </c>
       <c r="B73" s="28">
@@ -7264,13 +7307,13 @@
         <v>102</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G73" s="1">
         <v>76133012</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I73" s="21" t="s">
         <v>32</v>
@@ -7298,7 +7341,7 @@
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="123"/>
+      <c r="A74" s="124"/>
       <c r="B74" s="28">
         <v>43250</v>
       </c>
@@ -7312,13 +7355,13 @@
         <v>102</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G74" s="1">
         <v>76157131</v>
       </c>
       <c r="H74" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I74" s="21" t="s">
         <v>32</v>
@@ -7346,7 +7389,7 @@
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="121">
+      <c r="A75" s="122">
         <v>23</v>
       </c>
       <c r="B75" s="28">
@@ -7362,13 +7405,13 @@
         <v>46</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G75" s="1">
         <v>76172757</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I75" s="21" t="s">
         <v>32</v>
@@ -7380,10 +7423,10 @@
         <v>17602558329</v>
       </c>
       <c r="L75" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M75" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N75" s="30">
         <v>18962302886</v>
@@ -7393,7 +7436,7 @@
       </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="122"/>
+      <c r="A76" s="123"/>
       <c r="B76" s="28">
         <v>43257</v>
       </c>
@@ -7407,13 +7450,13 @@
         <v>46</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G76" s="1">
         <v>76172137</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I76" s="21" t="s">
         <v>32</v>
@@ -7425,10 +7468,10 @@
         <v>17602558329</v>
       </c>
       <c r="L76" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="M76" s="21" t="s">
         <v>297</v>
-      </c>
-      <c r="M76" s="21" t="s">
-        <v>298</v>
       </c>
       <c r="N76" s="30">
         <v>13585401224</v>
@@ -7438,7 +7481,7 @@
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="122"/>
+      <c r="A77" s="123"/>
       <c r="B77" s="28">
         <v>43257</v>
       </c>
@@ -7452,13 +7495,13 @@
         <v>102</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G77" s="21">
         <v>76157571</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I77" s="21" t="s">
         <v>32</v>
@@ -7486,7 +7529,7 @@
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="123"/>
+      <c r="A78" s="124"/>
       <c r="B78" s="28">
         <v>43257</v>
       </c>
@@ -7500,13 +7543,13 @@
         <v>102</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G78" s="21">
         <v>76176032</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I78" s="21" t="s">
         <v>32</v>
@@ -7534,7 +7577,7 @@
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="A79" s="121">
+      <c r="A79" s="122">
         <v>24</v>
       </c>
       <c r="B79" s="28">
@@ -7550,13 +7593,13 @@
         <v>46</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G79" s="1">
         <v>76169163</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I79" s="21" t="s">
         <v>32</v>
@@ -7568,20 +7611,20 @@
         <v>17602558329</v>
       </c>
       <c r="L79" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="M79" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="N79" s="30" t="s">
         <v>305</v>
-      </c>
-      <c r="M79" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="N79" s="30" t="s">
-        <v>306</v>
       </c>
       <c r="O79" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="123"/>
+      <c r="A80" s="124"/>
       <c r="B80" s="28">
         <v>43264</v>
       </c>
@@ -7595,13 +7638,13 @@
         <v>31</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G80" s="1">
         <v>76170955</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I80" s="21" t="s">
         <v>32</v>
@@ -7613,7 +7656,7 @@
         <v>17602558329</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M80" s="21" t="s">
         <v>199</v>
@@ -7626,7 +7669,7 @@
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="121">
+      <c r="A81" s="122">
         <v>25</v>
       </c>
       <c r="B81" s="28">
@@ -7642,13 +7685,13 @@
         <v>102</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G81" s="1">
         <v>76181189</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I81" s="21" t="s">
         <v>32</v>
@@ -7676,7 +7719,7 @@
       </c>
     </row>
     <row r="82" spans="1:16">
-      <c r="A82" s="122"/>
+      <c r="A82" s="123"/>
       <c r="B82" s="28">
         <v>43271</v>
       </c>
@@ -7690,13 +7733,13 @@
         <v>46</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G82" s="1">
         <v>76176538</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I82" s="21" t="s">
         <v>32</v>
@@ -7708,10 +7751,10 @@
         <v>17602558329</v>
       </c>
       <c r="L82" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="M82" s="21" t="s">
         <v>319</v>
-      </c>
-      <c r="M82" s="21" t="s">
-        <v>320</v>
       </c>
       <c r="N82" s="1">
         <v>18601580327</v>
@@ -7721,7 +7764,7 @@
       </c>
     </row>
     <row r="83" spans="1:16">
-      <c r="A83" s="122"/>
+      <c r="A83" s="123"/>
       <c r="B83" s="28">
         <v>43271</v>
       </c>
@@ -7732,16 +7775,16 @@
         <v>88</v>
       </c>
       <c r="E83" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="21" t="s">
         <v>321</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="G83" s="1">
         <v>76179053</v>
       </c>
       <c r="H83" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I83" s="21" t="s">
         <v>32</v>
@@ -7769,7 +7812,7 @@
       </c>
     </row>
     <row r="84" spans="1:16">
-      <c r="A84" s="122"/>
+      <c r="A84" s="123"/>
       <c r="B84" s="28">
         <v>43271</v>
       </c>
@@ -7780,16 +7823,16 @@
         <v>88</v>
       </c>
       <c r="E84" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>321</v>
-      </c>
-      <c r="F84" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="G84" s="1">
         <v>76171122</v>
       </c>
       <c r="H84" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I84" s="21" t="s">
         <v>32</v>
@@ -7817,7 +7860,7 @@
       </c>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="123"/>
+      <c r="A85" s="124"/>
       <c r="B85" s="28">
         <v>43271</v>
       </c>
@@ -7825,19 +7868,19 @@
         <v>29</v>
       </c>
       <c r="D85" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F85" s="21" t="s">
         <v>326</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="F85" s="21" t="s">
-        <v>328</v>
       </c>
       <c r="G85" s="1">
         <v>76173910</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I85" s="21" t="s">
         <v>32</v>
@@ -7849,10 +7892,10 @@
         <v>17602558329</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M85" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N85" s="11">
         <v>18705168375</v>
@@ -7862,55 +7905,147 @@
       </c>
     </row>
     <row r="86" spans="1:16">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
+      <c r="A86" s="122">
+        <v>26</v>
+      </c>
+      <c r="B86" s="28">
+        <v>43278</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="1">
+        <v>76169196</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L86" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="M86" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="N86" s="1">
+        <v>18136339599</v>
+      </c>
+      <c r="O86" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="87" spans="1:16">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="28">
+        <v>43278</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G87" s="1">
+        <v>76171121</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N87" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O87" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P87" s="47" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="88" spans="1:16">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
+      <c r="A88" s="124"/>
+      <c r="B88" s="28">
+        <v>43278</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G88" s="1">
+        <v>76179052</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="I88" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" s="11">
+        <v>17602558329</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="N88" s="11">
+        <v>18020275119</v>
+      </c>
+      <c r="O88" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P88" s="47" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1"/>
@@ -11568,7 +11703,7 @@
       <c r="O303" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A65:A69"/>
     <mergeCell ref="A63:A64"/>
@@ -11587,6 +11722,7 @@
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A86:A88"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A85"/>
   </mergeCells>
@@ -11606,7 +11742,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -11657,7 +11793,7 @@
         <v>43123</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>43</v>
@@ -11716,17 +11852,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="91">
-        <v>20</v>
+      <c r="A5" s="92">
+        <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C5" s="37">
-        <v>43234</v>
+        <v>43248</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>187</v>
@@ -11735,21 +11871,21 @@
         <v>188</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="93">
-        <v>22</v>
+      <c r="A6" s="128">
+        <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="37">
+        <v>43257</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>284</v>
-      </c>
-      <c r="C6" s="37">
-        <v>43248</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>285</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>187</v>
@@ -11758,21 +11894,19 @@
         <v>188</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="127">
-        <v>23</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="128"/>
+      <c r="B7" s="25" t="s">
         <v>307</v>
       </c>
       <c r="C7" s="37">
         <v>43257</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>187</v>
@@ -11781,34 +11915,22 @@
         <v>188</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="127"/>
-      <c r="B8" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="C8" s="37">
-        <v>43257</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>276</v>
-      </c>
+      <c r="A8" s="89"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="89"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -11860,34 +11982,34 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="89"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:7" ht="14.25">
+      <c r="A16" s="122"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="121"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="9"/>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -11896,25 +12018,25 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="9"/>
       <c r="C19" s="14"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="122"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="123"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="15"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="122"/>
+      <c r="A21" s="123"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -11923,7 +12045,7 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="122"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -11932,7 +12054,7 @@
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="122"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -11941,7 +12063,7 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="122"/>
+      <c r="A24" s="123"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -11950,7 +12072,7 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="122"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -11959,7 +12081,7 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="122"/>
+      <c r="A26" s="123"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -11968,7 +12090,7 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="122"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -11976,26 +12098,26 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="123"/>
+    <row r="28" spans="1:7" ht="14.25">
+      <c r="A28" s="122"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="121"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="12"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="9"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="122"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -12004,25 +12126,25 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="122"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="122"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="123"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="122"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -12031,7 +12153,7 @@
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="122"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -12040,7 +12162,7 @@
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="122"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -12049,7 +12171,7 @@
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="122"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -12058,7 +12180,7 @@
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="122"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -12067,7 +12189,7 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="122"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -12076,7 +12198,7 @@
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="122"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -12084,35 +12206,35 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="123"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="122"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="9"/>
       <c r="C41" s="14"/>
       <c r="D41" s="12"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="122"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="123"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="15"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="122"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -12121,7 +12243,7 @@
       <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="122"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -12130,7 +12252,7 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="122"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -12139,7 +12261,7 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="122"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -12148,7 +12270,7 @@
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="122"/>
+      <c r="A47" s="123"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
@@ -12157,7 +12279,7 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="122"/>
+      <c r="A48" s="123"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
@@ -12166,7 +12288,7 @@
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="122"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
@@ -12174,21 +12296,12 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="123"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A29:A40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="A17:A28"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
@@ -12207,7 +12320,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -12241,7 +12354,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="128">
+      <c r="A2" s="129">
         <v>12</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -12259,7 +12372,7 @@
       <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="123"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="25" t="s">
         <v>232</v>
       </c>
@@ -12269,7 +12382,7 @@
       <c r="D3" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="94" t="s">
         <v>259</v>
       </c>
       <c r="F3" s="51" t="s">
@@ -12277,7 +12390,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="121">
+      <c r="A4" s="122">
         <v>1</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -12289,7 +12402,7 @@
       <c r="D4" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="94" t="s">
         <v>259</v>
       </c>
       <c r="F4" s="51" t="s">
@@ -12297,7 +12410,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="123"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="34" t="s">
         <v>35</v>
       </c>
@@ -12307,11 +12420,11 @@
       <c r="D5" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="94" t="s">
         <v>259</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12350,7 +12463,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="121">
+      <c r="A8" s="122">
         <v>4</v>
       </c>
       <c r="B8" s="45" t="s">
@@ -12367,7 +12480,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="122"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="45" t="s">
         <v>35</v>
       </c>
@@ -12382,7 +12495,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="123"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="49" t="s">
         <v>35</v>
       </c>
@@ -12415,7 +12528,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="121">
+      <c r="A12" s="122">
         <v>6</v>
       </c>
       <c r="B12" s="90" t="s">
@@ -12425,14 +12538,14 @@
         <v>43260</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="122"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="90" t="s">
         <v>35</v>
       </c>
@@ -12440,7 +12553,7 @@
         <v>43261</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>259</v>
@@ -12448,17 +12561,47 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="123"/>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="91" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="35">
         <v>43269</v>
       </c>
       <c r="D14" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>313</v>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="123"/>
+      <c r="B15" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="35">
+        <v>43274</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="124"/>
+      <c r="B16" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="35">
+        <v>43275</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -12466,7 +12609,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
